--- a/1. D4J_Correct_NoDupl_Metrics/Defects4J_Correct_Project_67_Complexity_Avg.xlsx
+++ b/1. D4J_Correct_NoDupl_Metrics/Defects4J_Correct_Project_67_Complexity_Avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Desktop\VM Shared Folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\APR-PQA\1. D4J_Correct_NoDupl_Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -813,27 +813,9 @@
     <t>NbOperators</t>
   </si>
   <si>
-    <t>Lang-51-Repaired</t>
-  </si>
-  <si>
-    <t>Math-34-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-43-Fixed</t>
-  </si>
-  <si>
-    <t>Mockito-22-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-86-Fixed</t>
-  </si>
-  <si>
     <t>Closure-6-Buggy</t>
   </si>
   <si>
-    <t>Chart-12-Fixed</t>
-  </si>
-  <si>
     <t>Math-3-Buggy</t>
   </si>
   <si>
@@ -843,45 +825,18 @@
     <t>Closure-15-Buggy</t>
   </si>
   <si>
-    <t>Math-59-Repaired</t>
-  </si>
-  <si>
-    <t>Math-61-Repaired</t>
-  </si>
-  <si>
     <t>Math-79-Buggy</t>
   </si>
   <si>
     <t>Math-82-Buggy</t>
   </si>
   <si>
-    <t>Chart-26-Repaired</t>
-  </si>
-  <si>
     <t>Chart-14-Buggy</t>
   </si>
   <si>
-    <t>Closure-70-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-6-Fixed</t>
-  </si>
-  <si>
-    <t>Math-41-Fixed</t>
-  </si>
-  <si>
     <t>Math-30-Buggy</t>
   </si>
   <si>
-    <t>Closure-78-Repaired</t>
-  </si>
-  <si>
-    <t>Math-85-Fixed</t>
-  </si>
-  <si>
-    <t>Math-57-Repaired</t>
-  </si>
-  <si>
     <t>Mockito-22-Buggy</t>
   </si>
   <si>
@@ -891,162 +846,54 @@
     <t>Math-53-Buggy</t>
   </si>
   <si>
-    <t>Lang-55-Fixed</t>
-  </si>
-  <si>
-    <t>Chart-9-Repaired</t>
-  </si>
-  <si>
-    <t>Math-57-Fixed</t>
-  </si>
-  <si>
     <t>Lang-55-Buggy</t>
   </si>
   <si>
-    <t>Closure-38-Fixed</t>
-  </si>
-  <si>
     <t>Closure-123-Buggy</t>
   </si>
   <si>
-    <t>Math-69-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-123-Fixed</t>
-  </si>
-  <si>
-    <t>Math-30-Fixed</t>
-  </si>
-  <si>
     <t>Lang-29-Buggy</t>
   </si>
   <si>
     <t>2 100</t>
   </si>
   <si>
-    <t>Lang-10-Fixed</t>
-  </si>
-  <si>
-    <t>Math-69-Repaired</t>
-  </si>
-  <si>
     <t>Math-58-Buggy</t>
   </si>
   <si>
-    <t>Closure-18-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-21-Fixed</t>
-  </si>
-  <si>
-    <t>Time-15-Fixed</t>
-  </si>
-  <si>
-    <t>Time-19-Repaired</t>
-  </si>
-  <si>
     <t>Math-27-Buggy</t>
   </si>
   <si>
     <t>Lang-44-Buggy</t>
   </si>
   <si>
-    <t>Lang-29-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-18-Repaired</t>
-  </si>
-  <si>
-    <t>Mockito-22-Repaired</t>
-  </si>
-  <si>
     <t>Chart-12-Buggy</t>
   </si>
   <si>
     <t>Chart-7-Buggy</t>
   </si>
   <si>
-    <t>Closure-15-Fixed</t>
-  </si>
-  <si>
     <t>Math-65-Buggy</t>
   </si>
   <si>
-    <t>Closure-1-Fixed</t>
-  </si>
-  <si>
-    <t>Math-27-Fixed</t>
-  </si>
-  <si>
-    <t>Math-82-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-68-Fixed</t>
-  </si>
-  <si>
-    <t>Mockito-29-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-52-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-4-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-62-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-119-Repaired</t>
-  </si>
-  <si>
-    <t>Time-19-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-43-Repaired</t>
-  </si>
-  <si>
-    <t>Math-27-Repaired</t>
-  </si>
-  <si>
     <t>Math-25-Buggy</t>
   </si>
   <si>
-    <t>Mockito-29-Fixed</t>
-  </si>
-  <si>
-    <t>Chart-9-Fixed</t>
-  </si>
-  <si>
     <t>Closure-1-Buggy</t>
   </si>
   <si>
-    <t>Closure-115-Repaired</t>
-  </si>
-  <si>
     <t>Closure-78-Buggy</t>
   </si>
   <si>
-    <t>Time-26-Repaired</t>
-  </si>
-  <si>
     <t>Closure-86-Buggy</t>
   </si>
   <si>
-    <t>Closure-6-Repaired</t>
-  </si>
-  <si>
     <t>Closure-4-Buggy</t>
   </si>
   <si>
     <t>Math-41-Buggy</t>
   </si>
   <si>
-    <t>Lang-35-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-1-Repaired</t>
-  </si>
-  <si>
     <t>Math-69-Buggy</t>
   </si>
   <si>
@@ -1056,102 +903,33 @@
     <t>Math-57-Buggy</t>
   </si>
   <si>
-    <t>Lang-51-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-86-Repaired</t>
-  </si>
-  <si>
     <t>Math-61-Buggy</t>
   </si>
   <si>
-    <t>Chart-11-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-118-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-45-Fixed</t>
-  </si>
-  <si>
     <t>Closure-10-Buggy</t>
   </si>
   <si>
-    <t>Math-82-Fixed</t>
-  </si>
-  <si>
-    <t>Math-85-Repaired</t>
-  </si>
-  <si>
-    <t>Math-70-Fixed</t>
-  </si>
-  <si>
     <t>Closure-68-Buggy</t>
   </si>
   <si>
     <t>Lang-49-Buggy</t>
   </si>
   <si>
-    <t>Math-79-Fixed</t>
-  </si>
-  <si>
-    <t>Math-53-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-45-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-92-Repaired</t>
-  </si>
-  <si>
-    <t>Chart-14-Fixed</t>
-  </si>
-  <si>
     <t>Mockito-29-Buggy</t>
   </si>
   <si>
-    <t>Closure-78-Fixed</t>
-  </si>
-  <si>
     <t>Lang-6-Buggy</t>
   </si>
   <si>
-    <t>Math-3-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-10-Repaired</t>
-  </si>
-  <si>
-    <t>Math-25-Repaired</t>
-  </si>
-  <si>
-    <t>Math-58-Fixed</t>
-  </si>
-  <si>
-    <t>Math-50-Fixed</t>
-  </si>
-  <si>
     <t>Lang-43-Buggy</t>
   </si>
   <si>
     <t>Math-34-Buggy</t>
   </si>
   <si>
-    <t>Chart-12-Repaired</t>
-  </si>
-  <si>
     <t>Closure-46-Buggy</t>
   </si>
   <si>
-    <t>Chart-26-Fixed</t>
-  </si>
-  <si>
-    <t>Chart-14-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-29-Fixed</t>
-  </si>
-  <si>
     <t>Closure-119-Buggy</t>
   </si>
   <si>
@@ -1164,54 +942,21 @@
     <t>Closure-115-Buggy</t>
   </si>
   <si>
-    <t>Closure-92-Fixed</t>
-  </si>
-  <si>
     <t>Lang-58-Buggy</t>
   </si>
   <si>
-    <t>Closure-119-Fixed</t>
-  </si>
-  <si>
     <t>Lang-10-Buggy</t>
   </si>
   <si>
-    <t>Lang-49-Fixed</t>
-  </si>
-  <si>
-    <t>Math-30-Repaired</t>
-  </si>
-  <si>
-    <t>Math-11-Fixed</t>
-  </si>
-  <si>
     <t>Lang-35-Buggy</t>
   </si>
   <si>
     <t>Closure-40-Buggy</t>
   </si>
   <si>
-    <t>Chart-7-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-55-Repaired</t>
-  </si>
-  <si>
-    <t>Math-65-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-123-Repaired</t>
-  </si>
-  <si>
-    <t>Math-34-Repaired</t>
-  </si>
-  <si>
     <t>Math-56-Buggy</t>
   </si>
   <si>
-    <t>Math-80-Repaired</t>
-  </si>
-  <si>
     <t>Math-85-Buggy</t>
   </si>
   <si>
@@ -1221,69 +966,18 @@
     <t>Math-59-Buggy</t>
   </si>
   <si>
-    <t>Math-70-Repaired</t>
-  </si>
-  <si>
     <t>Lang-45-Buggy</t>
   </si>
   <si>
     <t>Math-50-Buggy</t>
   </si>
   <si>
-    <t>Chart-11-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-49-Repaired</t>
-  </si>
-  <si>
-    <t>Math-33-Fixed</t>
-  </si>
-  <si>
-    <t>Math-65-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-46-Repaired</t>
-  </si>
-  <si>
-    <t>Time-26-Fixed</t>
-  </si>
-  <si>
-    <t>Math-3-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-4-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-6-Fixed</t>
-  </si>
-  <si>
     <t>Time-15-Buggy</t>
   </si>
   <si>
-    <t>Closure-38-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-21-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-10-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-35-Repaired</t>
-  </si>
-  <si>
-    <t>Math-56-Fixed</t>
-  </si>
-  <si>
     <t>Math-33-Buggy</t>
   </si>
   <si>
-    <t>Closure-62-Fixed</t>
-  </si>
-  <si>
-    <t>Time-15-Repaired</t>
-  </si>
-  <si>
     <t>Chart-9-Buggy</t>
   </si>
   <si>
@@ -1293,72 +987,18 @@
     <t>Closure-38-Buggy</t>
   </si>
   <si>
-    <t>Lang-44-Fixed</t>
-  </si>
-  <si>
     <t>Closure-18-Buggy</t>
   </si>
   <si>
-    <t>Math-41-Repaired</t>
-  </si>
-  <si>
     <t>Chart-26-Buggy</t>
   </si>
   <si>
-    <t>Closure-40-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-15-Repaired</t>
-  </si>
-  <si>
-    <t>Lang-44-Repaired</t>
-  </si>
-  <si>
-    <t>Math-50-Repaired</t>
-  </si>
-  <si>
-    <t>Math-11-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-115-Fixed</t>
-  </si>
-  <si>
-    <t>Math-79-Repaired</t>
-  </si>
-  <si>
-    <t>Math-25-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-58-Fixed</t>
-  </si>
-  <si>
-    <t>Math-53-Repaired</t>
-  </si>
-  <si>
-    <t>Math-75-Fixed</t>
-  </si>
-  <si>
-    <t>Math-80-Fixed</t>
-  </si>
-  <si>
     <t>Closure-92-Buggy</t>
   </si>
   <si>
-    <t>Closure-118-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-40-Repaired</t>
-  </si>
-  <si>
     <t>Math-5-Buggy</t>
   </si>
   <si>
-    <t>Math-5-Repaired</t>
-  </si>
-  <si>
-    <t>Math-5-Fixed</t>
-  </si>
-  <si>
     <t>Math-75-Buggy</t>
   </si>
   <si>
@@ -1368,57 +1008,15 @@
     <t>Time-26-Buggy</t>
   </si>
   <si>
-    <t>Math-75-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-10-Repaired</t>
-  </si>
-  <si>
-    <t>Math-56-Repaired</t>
-  </si>
-  <si>
-    <t>Math-61-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-68-Repaired</t>
-  </si>
-  <si>
-    <t>Math-59-Fixed</t>
-  </si>
-  <si>
-    <t>Closure-46-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-58-Repaired</t>
-  </si>
-  <si>
     <t>Lang-52-Buggy</t>
   </si>
   <si>
-    <t>Lang-52-Repaired</t>
-  </si>
-  <si>
     <t>Math-70-Buggy</t>
   </si>
   <si>
-    <t>Chart-7-Fixed</t>
-  </si>
-  <si>
-    <t>Lang-6-Repaired</t>
-  </si>
-  <si>
-    <t>Math-33-Repaired</t>
-  </si>
-  <si>
     <t>Closure-62-Buggy</t>
   </si>
   <si>
-    <t>Math-58-Repaired</t>
-  </si>
-  <si>
-    <t>Closure-70-Fixed</t>
-  </si>
-  <si>
     <t>Sum:</t>
   </si>
   <si>
@@ -1476,27 +1074,9 @@
     <t>Avg-Buggy</t>
   </si>
   <si>
-    <t>Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Repaired</t>
-  </si>
-  <si>
     <t>Chunks</t>
   </si>
   <si>
-    <t>Multi-Hunk-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Multi-Hunk-Avg-Repaired</t>
-  </si>
-  <si>
-    <t>Single-Hunk-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Single-Hunk-Avg-Repaired</t>
-  </si>
-  <si>
     <t>* multi - methods</t>
   </si>
   <si>
@@ -1506,18 +1086,6 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>Single-Line-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Single-Line-Avg-Repaired</t>
-  </si>
-  <si>
-    <t>Multi-Line-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Multi-Line-Avg-Repaired</t>
-  </si>
-  <si>
     <t>67 projects</t>
   </si>
   <si>
@@ -1536,58 +1104,490 @@
     <t>Avg-Chart-Buggy</t>
   </si>
   <si>
-    <t>Avg-Chart-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Chart-Repaired</t>
-  </si>
-  <si>
     <t>Avg-Closure-Buggy</t>
   </si>
   <si>
-    <t>Avg-Closure-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Closure-Repaired</t>
-  </si>
-  <si>
     <t>Avg-Lang-Buggy</t>
   </si>
   <si>
-    <t>Avg-Lang-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Lang-Repaired</t>
-  </si>
-  <si>
     <t>Avg-Math-Buggy</t>
   </si>
   <si>
-    <t>Avg-Math-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Math-Repaired</t>
-  </si>
-  <si>
     <t>Avg-Mockito-Buggy</t>
   </si>
   <si>
-    <t>Avg-Mockito-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Mockito-Repaired</t>
-  </si>
-  <si>
     <t>Avg-Time-Buggy</t>
   </si>
   <si>
-    <t>Avg-Time-Fixed</t>
-  </si>
-  <si>
-    <t>Avg-Time-Repaired</t>
-  </si>
-  <si>
     <t>201 total</t>
+  </si>
+  <si>
+    <t>Chart-11-Manual</t>
+  </si>
+  <si>
+    <t>Chart-12-Manual</t>
+  </si>
+  <si>
+    <t>Chart-14-Manual</t>
+  </si>
+  <si>
+    <t>Chart-26-Manual</t>
+  </si>
+  <si>
+    <t>Chart-7-Manual</t>
+  </si>
+  <si>
+    <t>Chart-9-Manual</t>
+  </si>
+  <si>
+    <t>Closure-10-Manual</t>
+  </si>
+  <si>
+    <t>Closure-115-Manual</t>
+  </si>
+  <si>
+    <t>Closure-118-Manual</t>
+  </si>
+  <si>
+    <t>Closure-119-Manual</t>
+  </si>
+  <si>
+    <t>Closure-123-Manual</t>
+  </si>
+  <si>
+    <t>Closure-15-Manual</t>
+  </si>
+  <si>
+    <t>Closure-18-Manual</t>
+  </si>
+  <si>
+    <t>Closure-1-Manual</t>
+  </si>
+  <si>
+    <t>Closure-38-Manual</t>
+  </si>
+  <si>
+    <t>Closure-40-Manual</t>
+  </si>
+  <si>
+    <t>Closure-46-Manual</t>
+  </si>
+  <si>
+    <t>Closure-4-Manual</t>
+  </si>
+  <si>
+    <t>Closure-62-Manual</t>
+  </si>
+  <si>
+    <t>Closure-68-Manual</t>
+  </si>
+  <si>
+    <t>Closure-6-Manual</t>
+  </si>
+  <si>
+    <t>Closure-70-Manual</t>
+  </si>
+  <si>
+    <t>Closure-78-Manual</t>
+  </si>
+  <si>
+    <t>Closure-86-Manual</t>
+  </si>
+  <si>
+    <t>Closure-92-Manual</t>
+  </si>
+  <si>
+    <t>Lang-10-Manual</t>
+  </si>
+  <si>
+    <t>Lang-21-Manual</t>
+  </si>
+  <si>
+    <t>Lang-29-Manual</t>
+  </si>
+  <si>
+    <t>Lang-35-Manual</t>
+  </si>
+  <si>
+    <t>Lang-43-Manual</t>
+  </si>
+  <si>
+    <t>Lang-44-Manual</t>
+  </si>
+  <si>
+    <t>Lang-45-Manual</t>
+  </si>
+  <si>
+    <t>Lang-49-Manual</t>
+  </si>
+  <si>
+    <t>Lang-51-Manual</t>
+  </si>
+  <si>
+    <t>Lang-52-Manual</t>
+  </si>
+  <si>
+    <t>Lang-55-Manual</t>
+  </si>
+  <si>
+    <t>Lang-58-Manual</t>
+  </si>
+  <si>
+    <t>Lang-6-Manual</t>
+  </si>
+  <si>
+    <t>Math-11-Manual</t>
+  </si>
+  <si>
+    <t>Math-25-Manual</t>
+  </si>
+  <si>
+    <t>Math-27-Manual</t>
+  </si>
+  <si>
+    <t>Math-30-Manual</t>
+  </si>
+  <si>
+    <t>Math-33-Manual</t>
+  </si>
+  <si>
+    <t>Math-34-Manual</t>
+  </si>
+  <si>
+    <t>Math-3-Manual</t>
+  </si>
+  <si>
+    <t>Math-41-Manual</t>
+  </si>
+  <si>
+    <t>Math-50-Manual</t>
+  </si>
+  <si>
+    <t>Math-53-Manual</t>
+  </si>
+  <si>
+    <t>Math-56-Manual</t>
+  </si>
+  <si>
+    <t>Math-57-Manual</t>
+  </si>
+  <si>
+    <t>Math-58-Manual</t>
+  </si>
+  <si>
+    <t>Math-59-Manual</t>
+  </si>
+  <si>
+    <t>Math-5-Manual</t>
+  </si>
+  <si>
+    <t>Math-61-Manual</t>
+  </si>
+  <si>
+    <t>Math-65-Manual</t>
+  </si>
+  <si>
+    <t>Math-69-Manual</t>
+  </si>
+  <si>
+    <t>Math-70-Manual</t>
+  </si>
+  <si>
+    <t>Math-75-Manual</t>
+  </si>
+  <si>
+    <t>Math-79-Manual</t>
+  </si>
+  <si>
+    <t>Math-80-Manual</t>
+  </si>
+  <si>
+    <t>Math-82-Manual</t>
+  </si>
+  <si>
+    <t>Math-85-Manual</t>
+  </si>
+  <si>
+    <t>Mockito-22-Manual</t>
+  </si>
+  <si>
+    <t>Mockito-29-Manual</t>
+  </si>
+  <si>
+    <t>Time-15-Manual</t>
+  </si>
+  <si>
+    <t>Time-19-Manual</t>
+  </si>
+  <si>
+    <t>Time-26-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Manual</t>
+  </si>
+  <si>
+    <t>Single-Hunk-Avg-Manual</t>
+  </si>
+  <si>
+    <t>Multi-Hunk-Avg-Manual</t>
+  </si>
+  <si>
+    <t>Single-Line-Avg-Manual</t>
+  </si>
+  <si>
+    <t>Multi-Line-Avg-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Chart-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Closure-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Lang-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Math-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Mockito-Manual</t>
+  </si>
+  <si>
+    <t>Avg-Time-Manual</t>
+  </si>
+  <si>
+    <t>Chart-11-Auto</t>
+  </si>
+  <si>
+    <t>Chart-12-Auto</t>
+  </si>
+  <si>
+    <t>Chart-14-Auto</t>
+  </si>
+  <si>
+    <t>Chart-26-Auto</t>
+  </si>
+  <si>
+    <t>Chart-7-Auto</t>
+  </si>
+  <si>
+    <t>Chart-9-Auto</t>
+  </si>
+  <si>
+    <t>Closure-10-Auto</t>
+  </si>
+  <si>
+    <t>Closure-115-Auto</t>
+  </si>
+  <si>
+    <t>Closure-118-Auto</t>
+  </si>
+  <si>
+    <t>Closure-119-Auto</t>
+  </si>
+  <si>
+    <t>Closure-123-Auto</t>
+  </si>
+  <si>
+    <t>Closure-15-Auto</t>
+  </si>
+  <si>
+    <t>Closure-18-Auto</t>
+  </si>
+  <si>
+    <t>Closure-1-Auto</t>
+  </si>
+  <si>
+    <t>Closure-38-Auto</t>
+  </si>
+  <si>
+    <t>Closure-40-Auto</t>
+  </si>
+  <si>
+    <t>Closure-46-Auto</t>
+  </si>
+  <si>
+    <t>Closure-4-Auto</t>
+  </si>
+  <si>
+    <t>Closure-62-Auto</t>
+  </si>
+  <si>
+    <t>Closure-68-Auto</t>
+  </si>
+  <si>
+    <t>Closure-6-Auto</t>
+  </si>
+  <si>
+    <t>Closure-70-Auto</t>
+  </si>
+  <si>
+    <t>Closure-78-Auto</t>
+  </si>
+  <si>
+    <t>Closure-86-Auto</t>
+  </si>
+  <si>
+    <t>Closure-92-Auto</t>
+  </si>
+  <si>
+    <t>Lang-10-Auto</t>
+  </si>
+  <si>
+    <t>Lang-21-Auto</t>
+  </si>
+  <si>
+    <t>Lang-29-Auto</t>
+  </si>
+  <si>
+    <t>Lang-35-Auto</t>
+  </si>
+  <si>
+    <t>Lang-43-Auto</t>
+  </si>
+  <si>
+    <t>Lang-44-Auto</t>
+  </si>
+  <si>
+    <t>Lang-45-Auto</t>
+  </si>
+  <si>
+    <t>Lang-49-Auto</t>
+  </si>
+  <si>
+    <t>Lang-51-Auto</t>
+  </si>
+  <si>
+    <t>Lang-52-Auto</t>
+  </si>
+  <si>
+    <t>Lang-55-Auto</t>
+  </si>
+  <si>
+    <t>Lang-58-Auto</t>
+  </si>
+  <si>
+    <t>Lang-6-Auto</t>
+  </si>
+  <si>
+    <t>Math-11-Auto</t>
+  </si>
+  <si>
+    <t>Math-25-Auto</t>
+  </si>
+  <si>
+    <t>Math-27-Auto</t>
+  </si>
+  <si>
+    <t>Math-30-Auto</t>
+  </si>
+  <si>
+    <t>Math-33-Auto</t>
+  </si>
+  <si>
+    <t>Math-34-Auto</t>
+  </si>
+  <si>
+    <t>Math-3-Auto</t>
+  </si>
+  <si>
+    <t>Math-41-Auto</t>
+  </si>
+  <si>
+    <t>Math-50-Auto</t>
+  </si>
+  <si>
+    <t>Math-53-Auto</t>
+  </si>
+  <si>
+    <t>Math-56-Auto</t>
+  </si>
+  <si>
+    <t>Math-57-Auto</t>
+  </si>
+  <si>
+    <t>Math-58-Auto</t>
+  </si>
+  <si>
+    <t>Math-59-Auto</t>
+  </si>
+  <si>
+    <t>Math-5-Auto</t>
+  </si>
+  <si>
+    <t>Math-61-Auto</t>
+  </si>
+  <si>
+    <t>Math-65-Auto</t>
+  </si>
+  <si>
+    <t>Math-69-Auto</t>
+  </si>
+  <si>
+    <t>Math-70-Auto</t>
+  </si>
+  <si>
+    <t>Math-75-Auto</t>
+  </si>
+  <si>
+    <t>Math-79-Auto</t>
+  </si>
+  <si>
+    <t>Math-80-Auto</t>
+  </si>
+  <si>
+    <t>Math-82-Auto</t>
+  </si>
+  <si>
+    <t>Math-85-Auto</t>
+  </si>
+  <si>
+    <t>Mockito-22-Auto</t>
+  </si>
+  <si>
+    <t>Mockito-29-Auto</t>
+  </si>
+  <si>
+    <t>Time-15-Auto</t>
+  </si>
+  <si>
+    <t>Time-19-Auto</t>
+  </si>
+  <si>
+    <t>Time-26-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Auto</t>
+  </si>
+  <si>
+    <t>Single-Hunk-Avg-Auto</t>
+  </si>
+  <si>
+    <t>Multi-Hunk-Avg-Auto</t>
+  </si>
+  <si>
+    <t>Single-Line-Avg-Auto</t>
+  </si>
+  <si>
+    <t>Multi-Line-Avg-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Chart-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Closure-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Lang-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Math-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Mockito-Auto</t>
+  </si>
+  <si>
+    <t>Avg-Time-Auto</t>
   </si>
 </sst>
 </file>
@@ -2849,68 +2849,68 @@
     </row>
     <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.35">
       <c r="P22" s="24" t="s">
-        <v>250</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B24" s="8">
         <v>3.1</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="17" t="str">
-        <f t="shared" ref="O24:O55" si="0">IF(NOT(ISERR(SEARCH("*-Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A24))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A24))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A24))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A24))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P24" s="25"/>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8">
         <v>3</v>
@@ -3003,7 +3003,7 @@
         <v>0.86</v>
       </c>
       <c r="O25" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A25))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A25))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A25))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P25" s="25"/>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
@@ -3054,7 +3054,7 @@
         <v>0.25</v>
       </c>
       <c r="O26" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A26))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A26))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A26))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P26" s="25"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="B27" s="6">
         <v>2.0699999999999998</v>
@@ -3105,7 +3105,7 @@
         <v>0.22</v>
       </c>
       <c r="O27" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A27))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A27))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A27))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P27" s="25"/>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6">
         <v>2.04</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A28))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A28))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A28))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P28" s="25"/>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B29" s="6">
         <v>2.5499999999999998</v>
@@ -3207,7 +3207,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O29" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A29))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A29))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A29))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P29" s="25"/>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B30" s="8">
         <v>5.31</v>
@@ -3258,7 +3258,7 @@
         <v>21.37</v>
       </c>
       <c r="O30" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A30))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A30))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A30))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P30" s="25"/>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B31" s="8">
         <v>5.29</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A31))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A31))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A31))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P31" s="25"/>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="B32" s="8">
         <v>2.97</v>
@@ -3360,7 +3360,7 @@
         <v>0.67</v>
       </c>
       <c r="O32" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A32))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A32))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A32))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P32" s="25"/>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6">
         <v>3.28</v>
@@ -3411,7 +3411,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="O33" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A33))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A33))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A33))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P33" s="25"/>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6">
         <v>7.53</v>
@@ -3462,7 +3462,7 @@
         <v>0.75</v>
       </c>
       <c r="O34" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A34))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A34))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A34))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P34" s="25"/>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35" s="6">
         <v>4.2699999999999996</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A35))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A35))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A35))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P35" s="25"/>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="B36" s="6">
         <v>2.17</v>
@@ -3564,7 +3564,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="O36" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A36))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A36))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A36))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P36" s="25"/>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6">
         <v>5.19</v>
@@ -3615,7 +3615,7 @@
         <v>0.33</v>
       </c>
       <c r="O37" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A37))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A37))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A37))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P37" s="25"/>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6">
         <v>1.82</v>
@@ -3666,7 +3666,7 @@
         <v>0.98</v>
       </c>
       <c r="O38" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A38))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A38))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A38))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P38" s="25"/>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B39" s="6">
         <v>4.43</v>
@@ -3717,7 +3717,7 @@
         <v>0.11</v>
       </c>
       <c r="O39" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A39))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A39))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A39))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P39" s="25"/>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6">
         <v>5</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A40))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A40))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A40))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P40" s="25"/>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B41" s="6">
         <v>2.86</v>
@@ -3819,7 +3819,7 @@
         <v>0.12</v>
       </c>
       <c r="O41" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A41))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A41))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A41))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P41" s="25"/>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6">
         <v>2.78</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A42))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A42))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A42))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P42" s="25"/>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B43" s="6">
         <v>6.22</v>
@@ -3921,7 +3921,7 @@
         <v>3.66</v>
       </c>
       <c r="O43" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A43))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A43))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A43))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P43" s="25"/>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B44" s="6">
         <v>3.76</v>
@@ -3972,7 +3972,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O44" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A44))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A44))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A44))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P44" s="25"/>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B45" s="8">
         <v>6.03</v>
@@ -4023,7 +4023,7 @@
         <v>1.3</v>
       </c>
       <c r="O45" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A45))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A45))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A45))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P45" s="25"/>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6">
         <v>11.24</v>
@@ -4074,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A46))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A46))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A46))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P46" s="25"/>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6">
         <v>4.5999999999999996</v>
@@ -4125,7 +4125,7 @@
         <v>25.46</v>
       </c>
       <c r="O47" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A47))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A47))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A47))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P47" s="25"/>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B48" s="8">
         <v>4.93</v>
@@ -4176,7 +4176,7 @@
         <v>5.86</v>
       </c>
       <c r="O48" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A48))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A48))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A48))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P48" s="25"/>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="B49" s="8">
         <v>2.75</v>
@@ -4227,7 +4227,7 @@
         <v>6.17</v>
       </c>
       <c r="O49" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A49))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A49))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A49))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P49" s="25"/>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B50" s="8">
         <v>2.74</v>
@@ -4278,7 +4278,7 @@
         <v>0.31</v>
       </c>
       <c r="O50" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A50))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A50))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A50))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P50" s="25"/>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B51" s="6">
         <v>1.96</v>
@@ -4323,13 +4323,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N51" s="6">
         <v>116.68</v>
       </c>
       <c r="O51" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A51))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A51))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P51" s="25"/>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B52" s="8">
         <v>3.25</v>
@@ -4380,7 +4380,7 @@
         <v>0.18</v>
       </c>
       <c r="O52" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A52))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A52))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A52))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P52" s="25"/>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B53" s="8">
         <v>3.63</v>
@@ -4431,7 +4431,7 @@
         <v>0.22</v>
       </c>
       <c r="O53" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A53))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A53))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A53))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P53" s="25"/>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B54" s="8">
         <v>7</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A54))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A54))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A54))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P54" s="25"/>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B55" s="6">
         <v>4.6399999999999997</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A55))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A55))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A55))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P55" s="25"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8">
         <v>3.65</v>
@@ -4584,7 +4584,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="O56" s="17" t="str">
-        <f t="shared" ref="O56:O86" si="1">IF(NOT(ISERR(SEARCH("*-Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A56))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A56))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A56))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A56))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P56" s="25"/>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B57" s="8">
         <v>3.19</v>
@@ -4635,7 +4635,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O57" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A57))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A57))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A57))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P57" s="25"/>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="B58" s="6">
         <v>3.57</v>
@@ -4686,7 +4686,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="O58" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A58))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A58))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A58))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P58" s="25"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B59" s="6">
         <v>2.08</v>
@@ -4737,7 +4737,7 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="O59" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A59))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A59))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A59))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P59" s="25"/>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="B60" s="8">
         <v>5.13</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A60))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A60))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A60))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P60" s="25"/>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8">
         <v>2.4</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A61))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A61))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A61))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P61" s="25"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B62" s="8">
         <v>2.75</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A62))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A62))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A62))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P62" s="25"/>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B63" s="8">
         <v>2.75</v>
@@ -4941,7 +4941,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="O63" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A63))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A63))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A63))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P63" s="25"/>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B64" s="6">
         <v>2.4500000000000002</v>
@@ -4992,7 +4992,7 @@
         <v>0.12</v>
       </c>
       <c r="O64" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A64))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A64))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A64))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P64" s="25"/>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B65" s="6">
         <v>1.71</v>
@@ -5043,7 +5043,7 @@
         <v>1.21</v>
       </c>
       <c r="O65" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A65))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A65))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A65))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P65" s="25"/>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B66" s="8">
         <v>2.62</v>
@@ -5094,7 +5094,7 @@
         <v>2.94</v>
       </c>
       <c r="O66" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A66))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A66))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A66))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P66" s="25"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="B67" s="6">
         <v>1.85</v>
@@ -5145,7 +5145,7 @@
         <v>9.59</v>
       </c>
       <c r="O67" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A67))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A67))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A67))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P67" s="25"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B68" s="6">
         <v>3.23</v>
@@ -5196,7 +5196,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O68" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A68))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A68))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A68))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P68" s="25"/>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B69" s="8">
         <v>2.1</v>
@@ -5247,7 +5247,7 @@
         <v>1.72</v>
       </c>
       <c r="O69" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A69))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A69))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A69))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P69" s="25"/>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B70" s="8">
         <v>5.14</v>
@@ -5298,7 +5298,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O70" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A70))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A70))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A70))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P70" s="25"/>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B71" s="6">
         <v>2.5099999999999998</v>
@@ -5349,7 +5349,7 @@
         <v>0.95</v>
       </c>
       <c r="O71" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A71))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A71))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A71))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P71" s="25"/>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="B72" s="6">
         <v>2.13</v>
@@ -5400,7 +5400,7 @@
         <v>0.48</v>
       </c>
       <c r="O72" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A72))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A72))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A72))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P72" s="25"/>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B73" s="6">
         <v>4.1100000000000003</v>
@@ -5451,7 +5451,7 @@
         <v>0.15</v>
       </c>
       <c r="O73" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A73))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A73))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A73))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P73" s="25"/>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B74" s="8">
         <v>3.25</v>
@@ -5502,7 +5502,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O74" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A74))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A74))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A74))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P74" s="25"/>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="B75" s="6">
         <v>5.54</v>
@@ -5553,7 +5553,7 @@
         <v>55.4</v>
       </c>
       <c r="O75" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A75))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A75))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A75))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P75" s="25"/>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="B76" s="6">
         <v>2.84</v>
@@ -5604,7 +5604,7 @@
         <v>0.99</v>
       </c>
       <c r="O76" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A76))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A76))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A76))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P76" s="25"/>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B77" s="8">
         <v>1.55</v>
@@ -5655,7 +5655,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O77" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A77))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A77))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A77))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P77" s="25"/>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B78" s="6">
         <v>1.84</v>
@@ -5706,7 +5706,7 @@
         <v>0.3</v>
       </c>
       <c r="O78" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A78))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A78))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A78))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P78" s="25"/>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B79" s="6">
         <v>2.15</v>
@@ -5757,7 +5757,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O79" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A79))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A79))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A79))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P79" s="25"/>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>1.5</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A80))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A80))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A80))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P80" s="25"/>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="B81" s="8">
         <v>1.77</v>
@@ -5859,7 +5859,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="O81" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A81))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A81))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A81))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P81" s="25"/>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B82" s="8">
         <v>3.7</v>
@@ -5910,7 +5910,7 @@
         <v>2.98</v>
       </c>
       <c r="O82" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A82))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A82))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A82))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P82" s="25"/>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B83" s="6">
         <v>6</v>
@@ -5961,7 +5961,7 @@
         <v>0.21</v>
       </c>
       <c r="O83" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A83))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A83))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P83" s="25"/>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B84" s="6">
         <v>3</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A84))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A84))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A84))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P84" s="25"/>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6">
         <v>2.57</v>
@@ -6063,7 +6063,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O85" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A85))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A85))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A85))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P85" s="25"/>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B86" s="6">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A86))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A86))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A86))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P86" s="25"/>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B87" s="8">
         <v>1.5</v>
@@ -6165,7 +6165,7 @@
         <v>0.5</v>
       </c>
       <c r="O87" s="17" t="str">
-        <f t="shared" ref="O87:O118" si="2">IF(NOT(ISERR(SEARCH("*-Buggy",$A87))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A87))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A87))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A87))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A87))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A87))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P87" s="25"/>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="B88" s="8">
         <v>3.25</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A88))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A88))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P88" s="25"/>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B89" s="6">
         <v>2.68</v>
@@ -6267,7 +6267,7 @@
         <v>8.92</v>
       </c>
       <c r="O89" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A89))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A89))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P89" s="25"/>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="20" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="B90" s="21">
         <v>1.57</v>
@@ -6318,7 +6318,7 @@
         <v>0.23</v>
       </c>
       <c r="O90" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A90))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A90))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A90))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P90" s="26"/>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B91" s="19">
         <v>3.1</v>
@@ -6369,8 +6369,8 @@
         <v>0</v>
       </c>
       <c r="O91" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A91))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A91))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A91))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P91" s="31">
         <v>1</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B92" s="8">
         <v>3</v>
@@ -6430,8 +6430,8 @@
         <v>1.48</v>
       </c>
       <c r="O92" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A92))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A92))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A92))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P92" s="32">
         <v>1</v>
@@ -6443,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" ref="S92:S155" si="3">Q92+R92</f>
+        <f t="shared" ref="S92:S155" si="0">Q92+R92</f>
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B93" s="6">
         <v>3.01</v>
@@ -6491,8 +6491,8 @@
         <v>0.25</v>
       </c>
       <c r="O93" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A93))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A93))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A93))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P93" s="32">
         <v>2</v>
@@ -6504,13 +6504,13 @@
         <v>6</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B94" s="8">
         <v>2.08</v>
@@ -6552,8 +6552,8 @@
         <v>0.22</v>
       </c>
       <c r="O94" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A94))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A94))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A94))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P94" s="32">
         <v>2</v>
@@ -6565,13 +6565,13 @@
         <v>2</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="B95" s="8">
         <v>2.04</v>
@@ -6613,8 +6613,8 @@
         <v>0</v>
       </c>
       <c r="O95" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A95))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A95))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A95))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P95" s="32">
         <v>2</v>
@@ -6626,13 +6626,13 @@
         <v>2</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B96" s="8">
         <v>2.57</v>
@@ -6674,8 +6674,8 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O96" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A96))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A96))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A96))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P96" s="32">
         <v>1</v>
@@ -6687,13 +6687,13 @@
         <v>1</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B97" s="6">
         <v>5.31</v>
@@ -6735,8 +6735,8 @@
         <v>21.37</v>
       </c>
       <c r="O97" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A97))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A97))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A97))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P97" s="32">
         <v>1</v>
@@ -6748,13 +6748,13 @@
         <v>1</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B98" s="6">
         <v>5.0999999999999996</v>
@@ -6796,8 +6796,8 @@
         <v>0</v>
       </c>
       <c r="O98" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A98))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A98))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A98))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P98" s="32">
         <v>2</v>
@@ -6809,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B99" s="8">
         <v>2.99</v>
@@ -6857,8 +6857,8 @@
         <v>0.65</v>
       </c>
       <c r="O99" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A99))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A99))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A99))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P99" s="32">
         <v>1</v>
@@ -6870,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B100" s="6">
         <v>3.29</v>
@@ -6918,8 +6918,8 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="O100" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A100))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A100))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A100))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P100" s="32">
         <v>1</v>
@@ -6931,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B101" s="6">
         <v>7.53</v>
@@ -6979,8 +6979,8 @@
         <v>0.75</v>
       </c>
       <c r="O101" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A101))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A101))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A101))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P101" s="32">
         <v>1</v>
@@ -6992,13 +6992,13 @@
         <v>1</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B102" s="8">
         <v>4.33</v>
@@ -7040,8 +7040,8 @@
         <v>0</v>
       </c>
       <c r="O102" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A102))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A102))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A102))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P102" s="32">
         <v>1</v>
@@ -7053,13 +7053,13 @@
         <v>3</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6">
         <v>2.17</v>
@@ -7101,8 +7101,8 @@
         <v>2.21</v>
       </c>
       <c r="O103" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A103))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A103))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A103))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P103" s="32">
         <v>1</v>
@@ -7114,13 +7114,13 @@
         <v>1</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B104" s="8">
         <v>5.23</v>
@@ -7162,8 +7162,8 @@
         <v>0.33</v>
       </c>
       <c r="O104" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A104))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A104))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A104))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P104" s="32">
         <v>1</v>
@@ -7175,13 +7175,13 @@
         <v>3</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="B105" s="8">
         <v>1.85</v>
@@ -7223,8 +7223,8 @@
         <v>0.98</v>
       </c>
       <c r="O105" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A105))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A105))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A105))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P105" s="32">
         <v>1</v>
@@ -7236,13 +7236,13 @@
         <v>1</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B106" s="8">
         <v>4.42</v>
@@ -7284,8 +7284,8 @@
         <v>0.12</v>
       </c>
       <c r="O106" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A106))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A106))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A106))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P106" s="32">
         <v>2</v>
@@ -7297,13 +7297,13 @@
         <v>1</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B107" s="6">
         <v>5</v>
@@ -7345,8 +7345,8 @@
         <v>0</v>
       </c>
       <c r="O107" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A107))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A107))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A107))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P107" s="32">
         <v>1</v>
@@ -7358,13 +7358,13 @@
         <v>0</v>
       </c>
       <c r="S107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B108" s="8">
         <v>2.86</v>
@@ -7406,8 +7406,8 @@
         <v>0.12</v>
       </c>
       <c r="O108" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A108))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A108))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A108))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P108" s="32">
         <v>2</v>
@@ -7419,13 +7419,13 @@
         <v>2</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B109" s="6">
         <v>2.78</v>
@@ -7467,8 +7467,8 @@
         <v>0</v>
       </c>
       <c r="O109" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A109))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A109))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A109))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P109" s="32">
         <v>1</v>
@@ -7480,13 +7480,13 @@
         <v>1</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B110" s="6">
         <v>6.22</v>
@@ -7528,8 +7528,8 @@
         <v>3.66</v>
       </c>
       <c r="O110" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A110))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A110))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A110))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P110" s="32">
         <v>4</v>
@@ -7541,13 +7541,13 @@
         <v>3</v>
       </c>
       <c r="S110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="B111" s="6">
         <v>3.55</v>
@@ -7589,8 +7589,8 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O111" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A111))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A111))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A111))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P111" s="32">
         <v>4</v>
@@ -7602,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="S111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B112" s="6">
         <v>6.03</v>
@@ -7650,8 +7650,8 @@
         <v>1.3</v>
       </c>
       <c r="O112" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A112))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A112))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A112))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P112" s="32">
         <v>1</v>
@@ -7663,13 +7663,13 @@
         <v>1</v>
       </c>
       <c r="S112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B113" s="6">
         <v>11.24</v>
@@ -7711,8 +7711,8 @@
         <v>3</v>
       </c>
       <c r="O113" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A113))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A113))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A113))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P113" s="32">
         <v>2</v>
@@ -7724,13 +7724,13 @@
         <v>0</v>
       </c>
       <c r="S113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="B114" s="8">
         <v>4.5999999999999996</v>
@@ -7772,8 +7772,8 @@
         <v>24.75</v>
       </c>
       <c r="O114" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A114))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A114))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A114))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P114" s="32">
         <v>1</v>
@@ -7785,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="S114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B115" s="6">
         <v>4.93</v>
@@ -7833,8 +7833,8 @@
         <v>5.86</v>
       </c>
       <c r="O115" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A115))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A115))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P115" s="32">
         <v>1</v>
@@ -7846,13 +7846,13 @@
         <v>1</v>
       </c>
       <c r="S115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B116" s="8">
         <v>2.71</v>
@@ -7894,8 +7894,8 @@
         <v>6.17</v>
       </c>
       <c r="O116" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A116))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A116))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A116))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P116" s="32">
         <v>2</v>
@@ -7907,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="S116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="B117" s="8">
         <v>2.74</v>
@@ -7955,8 +7955,8 @@
         <v>0.31</v>
       </c>
       <c r="O117" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A117))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A117))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A117))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P117" s="32">
         <v>1</v>
@@ -7968,13 +7968,13 @@
         <v>1</v>
       </c>
       <c r="S117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B118" s="8">
         <v>1.96</v>
@@ -8010,14 +8010,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N118" s="8">
         <v>116.68</v>
       </c>
       <c r="O118" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A118))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A118))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A118))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P118" s="32">
         <v>1</v>
@@ -8029,13 +8029,13 @@
         <v>1</v>
       </c>
       <c r="S118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B119" s="6">
         <v>3.25</v>
@@ -8077,8 +8077,8 @@
         <v>0.18</v>
       </c>
       <c r="O119" s="29" t="str">
-        <f t="shared" ref="O119:O149" si="4">IF(NOT(ISERR(SEARCH("*-Buggy",$A119))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A119))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A119))), "Repaired", "")))</f>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A119))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A119))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A119))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P119" s="32">
         <v>2</v>
@@ -8090,13 +8090,13 @@
         <v>2</v>
       </c>
       <c r="S119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B120" s="8">
         <v>3.63</v>
@@ -8138,8 +8138,8 @@
         <v>0.22</v>
       </c>
       <c r="O120" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A120))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A120))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P120" s="32">
         <v>1</v>
@@ -8151,13 +8151,13 @@
         <v>1</v>
       </c>
       <c r="S120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B121" s="8">
         <v>7.11</v>
@@ -8199,8 +8199,8 @@
         <v>0</v>
       </c>
       <c r="O121" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A121))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A121))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P121" s="32">
         <v>1</v>
@@ -8212,13 +8212,13 @@
         <v>3</v>
       </c>
       <c r="S121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B122" s="6">
         <v>4.71</v>
@@ -8260,8 +8260,8 @@
         <v>0</v>
       </c>
       <c r="O122" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A122))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A122))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A122))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P122" s="32">
         <v>1</v>
@@ -8273,13 +8273,13 @@
         <v>3</v>
       </c>
       <c r="S122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B123" s="6">
         <v>3.71</v>
@@ -8321,8 +8321,8 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="O123" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A123))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A123))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A123))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P123" s="32">
         <v>1</v>
@@ -8334,13 +8334,13 @@
         <v>3</v>
       </c>
       <c r="S123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B124" s="8">
         <v>3.19</v>
@@ -8382,8 +8382,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O124" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A124))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A124))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A124))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P124" s="32">
         <v>1</v>
@@ -8395,13 +8395,13 @@
         <v>1</v>
       </c>
       <c r="S124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B125" s="6">
         <v>3.62</v>
@@ -8443,8 +8443,8 @@
         <v>6.3E-2</v>
       </c>
       <c r="O125" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A125))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A125))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A125))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P125" s="32">
         <v>1</v>
@@ -8456,13 +8456,13 @@
         <v>4</v>
       </c>
       <c r="S125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B126" s="8">
         <v>2.17</v>
@@ -8504,8 +8504,8 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="O126" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A126))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A126))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A126))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P126" s="32">
         <v>2</v>
@@ -8517,13 +8517,13 @@
         <v>2</v>
       </c>
       <c r="S126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B127" s="8">
         <v>5.13</v>
@@ -8565,8 +8565,8 @@
         <v>0</v>
       </c>
       <c r="O127" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A127))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A127))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A127))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P127" s="32">
         <v>1</v>
@@ -8578,13 +8578,13 @@
         <v>1</v>
       </c>
       <c r="S127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B128" s="6">
         <v>2.4</v>
@@ -8626,8 +8626,8 @@
         <v>0</v>
       </c>
       <c r="O128" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A128))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A128))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A128))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P128" s="32">
         <v>1</v>
@@ -8639,13 +8639,13 @@
         <v>1</v>
       </c>
       <c r="S128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B129" s="6">
         <v>2.75</v>
@@ -8687,8 +8687,8 @@
         <v>0</v>
       </c>
       <c r="O129" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A129))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A129))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A129))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P129" s="32">
         <v>1</v>
@@ -8700,13 +8700,13 @@
         <v>1</v>
       </c>
       <c r="S129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B130" s="6">
         <v>2.88</v>
@@ -8748,8 +8748,8 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="O130" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A130))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A130))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A130))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P130" s="32">
         <v>2</v>
@@ -8761,13 +8761,13 @@
         <v>3</v>
       </c>
       <c r="S130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="B131" s="6">
         <v>2.4500000000000002</v>
@@ -8809,8 +8809,8 @@
         <v>0.13</v>
       </c>
       <c r="O131" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A131))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A131))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A131))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P131" s="32">
         <v>1</v>
@@ -8822,13 +8822,13 @@
         <v>1</v>
       </c>
       <c r="S131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B132" s="8">
         <v>1.71</v>
@@ -8870,8 +8870,8 @@
         <v>1.21</v>
       </c>
       <c r="O132" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A132))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A132))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A132))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P132" s="32">
         <v>1</v>
@@ -8883,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="S132" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" s="6">
         <v>2.62</v>
@@ -8931,8 +8931,8 @@
         <v>2.94</v>
       </c>
       <c r="O133" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A133))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A133))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A133))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P133" s="32">
         <v>1</v>
@@ -8944,13 +8944,13 @@
         <v>1</v>
       </c>
       <c r="S133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="B134" s="8">
         <v>1.85</v>
@@ -8992,8 +8992,8 @@
         <v>9.59</v>
       </c>
       <c r="O134" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A134))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A134))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A134))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P134" s="32">
         <v>1</v>
@@ -9005,13 +9005,13 @@
         <v>1</v>
       </c>
       <c r="S134" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B135" s="6">
         <v>3.25</v>
@@ -9053,8 +9053,8 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O135" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A135))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A135))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A135))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P135" s="32">
         <v>2</v>
@@ -9066,13 +9066,13 @@
         <v>3</v>
       </c>
       <c r="S135" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B136" s="8">
         <v>2.1</v>
@@ -9114,8 +9114,8 @@
         <v>1.72</v>
       </c>
       <c r="O136" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A136))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A136))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A136))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P136" s="32">
         <v>1</v>
@@ -9127,13 +9127,13 @@
         <v>1</v>
       </c>
       <c r="S136" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B137" s="6">
         <v>5</v>
@@ -9175,8 +9175,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O137" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A137))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A137))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A137))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P137" s="32">
         <v>1</v>
@@ -9188,13 +9188,13 @@
         <v>0</v>
       </c>
       <c r="S137" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B138" s="8">
         <v>2.57</v>
@@ -9236,8 +9236,8 @@
         <v>0.95</v>
       </c>
       <c r="O138" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A138))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A138))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A138))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P138" s="32">
         <v>1</v>
@@ -9249,13 +9249,13 @@
         <v>3</v>
       </c>
       <c r="S138" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B139" s="6">
         <v>2.0699999999999998</v>
@@ -9297,8 +9297,8 @@
         <v>0.48</v>
       </c>
       <c r="O139" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A139))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A139))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A139))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P139" s="32">
         <v>1</v>
@@ -9310,13 +9310,13 @@
         <v>1</v>
       </c>
       <c r="S139" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="B140" s="8">
         <v>4.1100000000000003</v>
@@ -9358,8 +9358,8 @@
         <v>0.15</v>
       </c>
       <c r="O140" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A140))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A140))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A140))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P140" s="32">
         <v>1</v>
@@ -9371,13 +9371,13 @@
         <v>1</v>
       </c>
       <c r="S140" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B141" s="8">
         <v>3.25</v>
@@ -9419,8 +9419,8 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O141" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A141))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A141))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A141))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P141" s="32">
         <v>1</v>
@@ -9432,13 +9432,13 @@
         <v>1</v>
       </c>
       <c r="S141" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B142" s="8">
         <v>5.54</v>
@@ -9480,8 +9480,8 @@
         <v>55.4</v>
       </c>
       <c r="O142" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A142))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A142))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A142))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P142" s="32">
         <v>1</v>
@@ -9493,13 +9493,13 @@
         <v>1</v>
       </c>
       <c r="S142" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B143" s="6">
         <v>2.84</v>
@@ -9541,8 +9541,8 @@
         <v>0.99</v>
       </c>
       <c r="O143" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A143))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A143))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A143))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P143" s="32">
         <v>1</v>
@@ -9554,13 +9554,13 @@
         <v>1</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B144" s="8">
         <v>1.55</v>
@@ -9602,8 +9602,8 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O144" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A144))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A144))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A144))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P144" s="32">
         <v>2</v>
@@ -9615,13 +9615,13 @@
         <v>2</v>
       </c>
       <c r="S144" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B145" s="8">
         <v>1.79</v>
@@ -9663,8 +9663,8 @@
         <v>0.32</v>
       </c>
       <c r="O145" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A145))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A145))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A145))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P145" s="32">
         <v>2</v>
@@ -9676,13 +9676,13 @@
         <v>2</v>
       </c>
       <c r="S145" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="B146" s="8">
         <v>2.15</v>
@@ -9724,8 +9724,8 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O146" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A146))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A146))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A146))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P146" s="32">
         <v>1</v>
@@ -9737,13 +9737,13 @@
         <v>1</v>
       </c>
       <c r="S146" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B147" s="8">
         <v>1.5</v>
@@ -9785,8 +9785,8 @@
         <v>0</v>
       </c>
       <c r="O147" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A147))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A147))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A147))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P147" s="32">
         <v>1</v>
@@ -9798,13 +9798,13 @@
         <v>1</v>
       </c>
       <c r="S147" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B148" s="8">
         <v>1.77</v>
@@ -9846,8 +9846,8 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O148" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A148))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A148))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A148))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P148" s="32">
         <v>1</v>
@@ -9859,13 +9859,13 @@
         <v>1</v>
       </c>
       <c r="S148" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="B149" s="6">
         <v>3.7</v>
@@ -9907,8 +9907,8 @@
         <v>2.98</v>
       </c>
       <c r="O149" s="29" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A149))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A149))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A149))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P149" s="32">
         <v>2</v>
@@ -9920,13 +9920,13 @@
         <v>2</v>
       </c>
       <c r="S149" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B150" s="6">
         <v>6</v>
@@ -9968,8 +9968,8 @@
         <v>0.21</v>
       </c>
       <c r="O150" s="29" t="str">
-        <f t="shared" ref="O150:O181" si="5">IF(NOT(ISERR(SEARCH("*-Buggy",$A150))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A150))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A150))), "Repaired", "")))</f>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A150))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A150))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A150))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P150" s="32">
         <v>1</v>
@@ -9981,13 +9981,13 @@
         <v>1</v>
       </c>
       <c r="S150" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B151" s="6">
         <v>3</v>
@@ -10029,8 +10029,8 @@
         <v>0</v>
       </c>
       <c r="O151" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A151))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A151))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A151))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P151" s="32">
         <v>1</v>
@@ -10042,13 +10042,13 @@
         <v>1</v>
       </c>
       <c r="S151" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B152" s="6">
         <v>2.57</v>
@@ -10090,8 +10090,8 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O152" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A152))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A152))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A152))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P152" s="32">
         <v>1</v>
@@ -10103,13 +10103,13 @@
         <v>1</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="B153" s="6">
         <v>2.2000000000000002</v>
@@ -10151,8 +10151,8 @@
         <v>0</v>
       </c>
       <c r="O153" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A153))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A153))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P153" s="32">
         <v>1</v>
@@ -10164,13 +10164,13 @@
         <v>3</v>
       </c>
       <c r="S153" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="B154" s="6">
         <v>1.75</v>
@@ -10212,8 +10212,8 @@
         <v>0.5</v>
       </c>
       <c r="O154" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A154))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A154))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A154))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P154" s="32">
         <v>1</v>
@@ -10225,13 +10225,13 @@
         <v>1</v>
       </c>
       <c r="S154" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="B155" s="6">
         <v>3.31</v>
@@ -10273,8 +10273,8 @@
         <v>0</v>
       </c>
       <c r="O155" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A155))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A155))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A155))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P155" s="32">
         <v>1</v>
@@ -10286,13 +10286,13 @@
         <v>3</v>
       </c>
       <c r="S155" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="B156" s="6">
         <v>2.68</v>
@@ -10334,8 +10334,8 @@
         <v>8.92</v>
       </c>
       <c r="O156" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A156))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A156))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A156))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P156" s="32">
         <v>1</v>
@@ -10347,13 +10347,13 @@
         <v>1</v>
       </c>
       <c r="S156" s="1">
-        <f t="shared" ref="S156:S219" si="6">Q156+R156</f>
+        <f t="shared" ref="S156:S219" si="1">Q156+R156</f>
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="20" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B157" s="21">
         <v>1.57</v>
@@ -10395,8 +10395,8 @@
         <v>0.23</v>
       </c>
       <c r="O157" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A157))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A157))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A157))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="P157" s="33">
         <v>7</v>
@@ -10408,13 +10408,13 @@
         <v>7</v>
       </c>
       <c r="S157" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="B158" s="19">
         <v>3.1</v>
@@ -10456,8 +10456,8 @@
         <v>0</v>
       </c>
       <c r="O158" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A158))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A158))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A158))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P158" s="31">
         <v>1</v>
@@ -10469,13 +10469,13 @@
         <v>1</v>
       </c>
       <c r="S158" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="B159" s="8">
         <v>3</v>
@@ -10517,8 +10517,8 @@
         <v>0.86</v>
       </c>
       <c r="O159" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A159))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A159))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A159))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P159" s="32">
         <v>1</v>
@@ -10530,13 +10530,13 @@
         <v>1</v>
       </c>
       <c r="S159" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="B160" s="6">
         <v>2.9</v>
@@ -10578,8 +10578,8 @@
         <v>0.27</v>
       </c>
       <c r="O160" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A160))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A160))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A160))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P160" s="32">
         <v>2</v>
@@ -10591,13 +10591,13 @@
         <v>4121</v>
       </c>
       <c r="S160" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4121</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="B161" s="8">
         <v>2.08</v>
@@ -10639,8 +10639,8 @@
         <v>0.22</v>
       </c>
       <c r="O161" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A161))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A161))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A161))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P161" s="32">
         <v>2</v>
@@ -10652,13 +10652,13 @@
         <v>4</v>
       </c>
       <c r="S161" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B162" s="8">
         <v>2.04</v>
@@ -10700,8 +10700,8 @@
         <v>0</v>
       </c>
       <c r="O162" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A162))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A162))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A162))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P162" s="32">
         <v>2</v>
@@ -10713,13 +10713,13 @@
         <v>2</v>
       </c>
       <c r="S162" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="B163" s="6">
         <v>2.5499999999999998</v>
@@ -10761,8 +10761,8 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O163" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A163))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A163))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A163))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P163" s="32">
         <v>1</v>
@@ -10774,13 +10774,13 @@
         <v>1</v>
       </c>
       <c r="S163" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B164" s="8">
         <v>5.31</v>
@@ -10822,8 +10822,8 @@
         <v>21.37</v>
       </c>
       <c r="O164" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A164))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A164))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A164))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P164" s="32">
         <v>1</v>
@@ -10835,13 +10835,13 @@
         <v>1</v>
       </c>
       <c r="S164" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="B165" s="8">
         <v>5.19</v>
@@ -10883,8 +10883,8 @@
         <v>0</v>
       </c>
       <c r="O165" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A165))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A165))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A165))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P165" s="32">
         <v>1</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="S165" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B166" s="6">
         <v>2.99</v>
@@ -10944,8 +10944,8 @@
         <v>0.67</v>
       </c>
       <c r="O166" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A166))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A166))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A166))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P166" s="32">
         <v>1</v>
@@ -10957,13 +10957,13 @@
         <v>3</v>
       </c>
       <c r="S166" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="B167" s="8">
         <v>3.29</v>
@@ -11005,8 +11005,8 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="O167" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A167))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A167))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A167))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P167" s="32">
         <v>1</v>
@@ -11018,13 +11018,13 @@
         <v>1</v>
       </c>
       <c r="S167" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="B168" s="6">
         <v>7.53</v>
@@ -11066,8 +11066,8 @@
         <v>0.75</v>
       </c>
       <c r="O168" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A168))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A168))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A168))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P168" s="32">
         <v>1</v>
@@ -11079,13 +11079,13 @@
         <v>1</v>
       </c>
       <c r="S168" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B169" s="6">
         <v>4.33</v>
@@ -11127,8 +11127,8 @@
         <v>0</v>
       </c>
       <c r="O169" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A169))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A169))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A169))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P169" s="32">
         <v>1</v>
@@ -11140,13 +11140,13 @@
         <v>3</v>
       </c>
       <c r="S169" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="B170" s="8">
         <v>2.17</v>
@@ -11188,8 +11188,8 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="O170" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A170))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A170))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A170))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P170" s="32">
         <v>1</v>
@@ -11201,13 +11201,13 @@
         <v>1</v>
       </c>
       <c r="S170" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="B171" s="8">
         <v>5.23</v>
@@ -11249,8 +11249,8 @@
         <v>0.33</v>
       </c>
       <c r="O171" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A171))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A171))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A171))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P171" s="32">
         <v>1</v>
@@ -11262,13 +11262,13 @@
         <v>3</v>
       </c>
       <c r="S171" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B172" s="6">
         <v>1.82</v>
@@ -11310,8 +11310,8 @@
         <v>0.98</v>
       </c>
       <c r="O172" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A172))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A172))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A172))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P172" s="32">
         <v>1</v>
@@ -11323,13 +11323,13 @@
         <v>3</v>
       </c>
       <c r="S172" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B173" s="8">
         <v>4.43</v>
@@ -11371,8 +11371,8 @@
         <v>0.12</v>
       </c>
       <c r="O173" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A173))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A173))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A173))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P173" s="32">
         <v>1</v>
@@ -11384,13 +11384,13 @@
         <v>1</v>
       </c>
       <c r="S173" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B174" s="6">
         <v>5</v>
@@ -11432,8 +11432,8 @@
         <v>0</v>
       </c>
       <c r="O174" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A174))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A174))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A174))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P174" s="32">
         <v>1</v>
@@ -11445,13 +11445,13 @@
         <v>1</v>
       </c>
       <c r="S174" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B175" s="8">
         <v>2.86</v>
@@ -11493,8 +11493,8 @@
         <v>0.12</v>
       </c>
       <c r="O175" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A175))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A175))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A175))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P175" s="32">
         <v>1</v>
@@ -11506,13 +11506,13 @@
         <v>1</v>
       </c>
       <c r="S175" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="B176" s="6">
         <v>2.78</v>
@@ -11554,8 +11554,8 @@
         <v>0</v>
       </c>
       <c r="O176" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A176))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A176))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A176))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P176" s="32">
         <v>1</v>
@@ -11567,13 +11567,13 @@
         <v>1</v>
       </c>
       <c r="S176" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B177" s="6">
         <v>6.22</v>
@@ -11615,8 +11615,8 @@
         <v>3.66</v>
       </c>
       <c r="O177" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A177))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A177))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A177))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P177" s="32">
         <v>3</v>
@@ -11628,13 +11628,13 @@
         <v>8</v>
       </c>
       <c r="S177" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="B178" s="8">
         <v>3.74</v>
@@ -11676,8 +11676,8 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O178" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A178))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A178))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A178))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P178" s="32">
         <v>2</v>
@@ -11689,13 +11689,13 @@
         <v>9</v>
       </c>
       <c r="S178" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="B179" s="8">
         <v>6.03</v>
@@ -11737,8 +11737,8 @@
         <v>1.3</v>
       </c>
       <c r="O179" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A179))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A179))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A179))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P179" s="32">
         <v>1</v>
@@ -11750,13 +11750,13 @@
         <v>1</v>
       </c>
       <c r="S179" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B180" s="8">
         <v>11.26</v>
@@ -11798,8 +11798,8 @@
         <v>3</v>
       </c>
       <c r="O180" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A180))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A180))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A180))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P180" s="32">
         <v>2</v>
@@ -11811,13 +11811,13 @@
         <v>2</v>
       </c>
       <c r="S180" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="B181" s="6">
         <v>4.5999999999999996</v>
@@ -11859,8 +11859,8 @@
         <v>25.46</v>
       </c>
       <c r="O181" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A181))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A181))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A181))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P181" s="32">
         <v>1</v>
@@ -11872,13 +11872,13 @@
         <v>1</v>
       </c>
       <c r="S181" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="B182" s="8">
         <v>4.93</v>
@@ -11920,8 +11920,8 @@
         <v>5.86</v>
       </c>
       <c r="O182" s="29" t="str">
-        <f t="shared" ref="O182:O201" si="7">IF(NOT(ISERR(SEARCH("*-Buggy",$A182))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A182))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A182))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A182))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A182))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A182))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P182" s="32">
         <v>1</v>
@@ -11933,13 +11933,13 @@
         <v>1</v>
       </c>
       <c r="S182" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="B183" s="8">
         <v>2.77</v>
@@ -11981,8 +11981,8 @@
         <v>6.17</v>
       </c>
       <c r="O183" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A183))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A183))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A183))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P183" s="32">
         <v>1</v>
@@ -11994,13 +11994,13 @@
         <v>1</v>
       </c>
       <c r="S183" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B184" s="8">
         <v>2.74</v>
@@ -12042,8 +12042,8 @@
         <v>0.31</v>
       </c>
       <c r="O184" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A184))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A184))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A184))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P184" s="32">
         <v>1</v>
@@ -12055,13 +12055,13 @@
         <v>1</v>
       </c>
       <c r="S184" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="B185" s="6">
         <v>1.96</v>
@@ -12097,14 +12097,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N185" s="6">
         <v>116.68</v>
       </c>
       <c r="O185" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A185))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A185))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A185))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P185" s="32">
         <v>1</v>
@@ -12116,13 +12116,13 @@
         <v>1</v>
       </c>
       <c r="S185" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B186" s="8">
         <v>3.26</v>
@@ -12164,8 +12164,8 @@
         <v>0.18</v>
       </c>
       <c r="O186" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A186))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A186))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A186))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P186" s="32">
         <v>2</v>
@@ -12177,13 +12177,13 @@
         <v>2</v>
       </c>
       <c r="S186" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="B187" s="8">
         <v>3.63</v>
@@ -12225,8 +12225,8 @@
         <v>0.22</v>
       </c>
       <c r="O187" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A187))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A187))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A187))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P187" s="32">
         <v>1</v>
@@ -12238,13 +12238,13 @@
         <v>2</v>
       </c>
       <c r="S187" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="B188" s="8">
         <v>7.11</v>
@@ -12286,8 +12286,8 @@
         <v>0</v>
       </c>
       <c r="O188" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A188))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A188))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A188))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P188" s="32">
         <v>1</v>
@@ -12299,13 +12299,13 @@
         <v>4</v>
       </c>
       <c r="S188" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="B189" s="6">
         <v>4.71</v>
@@ -12347,8 +12347,8 @@
         <v>0</v>
       </c>
       <c r="O189" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A189))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A189))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A189))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P189" s="32">
         <v>1</v>
@@ -12360,13 +12360,13 @@
         <v>3</v>
       </c>
       <c r="S189" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B190" s="8">
         <v>3.71</v>
@@ -12408,8 +12408,8 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="O190" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A190))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A190))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A190))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P190" s="32">
         <v>1</v>
@@ -12421,13 +12421,13 @@
         <v>8</v>
       </c>
       <c r="S190" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="B191" s="6">
         <v>3.19</v>
@@ -12469,8 +12469,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O191" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A191))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A191))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A191))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P191" s="32">
         <v>1</v>
@@ -12482,13 +12482,13 @@
         <v>1</v>
       </c>
       <c r="S191" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B192" s="8">
         <v>3.62</v>
@@ -12530,8 +12530,8 @@
         <v>6.3E-2</v>
       </c>
       <c r="O192" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A192))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A192))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A192))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P192" s="32">
         <v>1</v>
@@ -12543,13 +12543,13 @@
         <v>77</v>
       </c>
       <c r="S192" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="B193" s="6">
         <v>2.17</v>
@@ -12591,8 +12591,8 @@
         <v>11.27</v>
       </c>
       <c r="O193" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A193))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A193))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A193))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P193" s="32">
         <v>1</v>
@@ -12604,13 +12604,13 @@
         <v>1</v>
       </c>
       <c r="S193" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B194" s="8">
         <v>5.13</v>
@@ -12652,8 +12652,8 @@
         <v>0</v>
       </c>
       <c r="O194" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A194))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A194))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A194))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P194" s="32">
         <v>1</v>
@@ -12665,13 +12665,13 @@
         <v>2</v>
       </c>
       <c r="S194" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B195" s="6">
         <v>2.4</v>
@@ -12713,8 +12713,8 @@
         <v>0</v>
       </c>
       <c r="O195" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A195))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A195))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A195))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P195" s="32">
         <v>1</v>
@@ -12726,13 +12726,13 @@
         <v>1</v>
       </c>
       <c r="S195" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B196" s="8">
         <v>2.75</v>
@@ -12774,8 +12774,8 @@
         <v>1.67</v>
       </c>
       <c r="O196" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A196))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A196))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A196))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P196" s="32">
         <v>1</v>
@@ -12787,13 +12787,13 @@
         <v>1</v>
       </c>
       <c r="S196" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="B197" s="6">
         <v>2.88</v>
@@ -12835,8 +12835,8 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="O197" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A197))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A197))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A197))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P197" s="32">
         <v>1</v>
@@ -12848,13 +12848,13 @@
         <v>1</v>
       </c>
       <c r="S197" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="B198" s="6">
         <v>2.4500000000000002</v>
@@ -12896,8 +12896,8 @@
         <v>0.13</v>
       </c>
       <c r="O198" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A198))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A198))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A198))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P198" s="32">
         <v>1</v>
@@ -12909,13 +12909,13 @@
         <v>1</v>
       </c>
       <c r="S198" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="B199" s="8">
         <v>1.71</v>
@@ -12957,8 +12957,8 @@
         <v>1.21</v>
       </c>
       <c r="O199" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A199))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A199))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A199))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P199" s="32">
         <v>1</v>
@@ -12970,13 +12970,13 @@
         <v>1</v>
       </c>
       <c r="S199" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B200" s="8">
         <v>2.62</v>
@@ -13018,8 +13018,8 @@
         <v>2.94</v>
       </c>
       <c r="O200" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A200))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A200))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A200))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P200" s="32">
         <v>1</v>
@@ -13031,13 +13031,13 @@
         <v>1</v>
       </c>
       <c r="S200" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="B201" s="8">
         <v>1.85</v>
@@ -13079,8 +13079,8 @@
         <v>9.59</v>
       </c>
       <c r="O201" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A201))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A201))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A201))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P201" s="32">
         <v>1</v>
@@ -13092,13 +13092,13 @@
         <v>1</v>
       </c>
       <c r="S201" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="B202" s="6">
         <v>3.25</v>
@@ -13140,8 +13140,8 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O202" s="29" t="str">
-        <f t="shared" ref="O202" si="8">IF(NOT(ISERR(SEARCH("*-Buggy",$A202))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A202))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A202))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A202))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A202))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A202))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P202" s="32">
         <v>1</v>
@@ -13153,13 +13153,13 @@
         <v>1</v>
       </c>
       <c r="S202" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="B203" s="8">
         <v>2.1</v>
@@ -13201,8 +13201,8 @@
         <v>1.72</v>
       </c>
       <c r="O203" s="29" t="str">
-        <f t="shared" ref="O203:O224" si="9">IF(NOT(ISERR(SEARCH("*-Buggy",$A203))), "Buggy", IF(NOT(ISERR(SEARCH("*-Fixed",$A203))), "Fixed", IF(NOT(ISERR(SEARCH("*-Repaired",$A203))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A203))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A203))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A203))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P203" s="32">
         <v>1</v>
@@ -13214,13 +13214,13 @@
         <v>1</v>
       </c>
       <c r="S203" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="B204" s="6">
         <v>5.14</v>
@@ -13262,8 +13262,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O204" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A204))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A204))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A204))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P204" s="32">
         <v>1</v>
@@ -13275,13 +13275,13 @@
         <v>0</v>
       </c>
       <c r="S204" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="B205" s="6">
         <v>2.57</v>
@@ -13323,8 +13323,8 @@
         <v>0.95</v>
       </c>
       <c r="O205" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A205))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A205))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A205))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P205" s="32">
         <v>1</v>
@@ -13336,13 +13336,13 @@
         <v>3</v>
       </c>
       <c r="S205" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="B206" s="6">
         <v>2.13</v>
@@ -13384,8 +13384,8 @@
         <v>0.48</v>
       </c>
       <c r="O206" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A206))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A206))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A206))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P206" s="32">
         <v>1</v>
@@ -13397,13 +13397,13 @@
         <v>1</v>
       </c>
       <c r="S206" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="B207" s="8">
         <v>4.1100000000000003</v>
@@ -13445,8 +13445,8 @@
         <v>0.15</v>
       </c>
       <c r="O207" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A207))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A207))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A207))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P207" s="32">
         <v>1</v>
@@ -13458,13 +13458,13 @@
         <v>1</v>
       </c>
       <c r="S207" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B208" s="8">
         <v>3.25</v>
@@ -13506,8 +13506,8 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O208" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A208))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A208))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A208))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P208" s="32">
         <v>1</v>
@@ -13519,13 +13519,13 @@
         <v>1</v>
       </c>
       <c r="S208" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="B209" s="8">
         <v>5.54</v>
@@ -13567,8 +13567,8 @@
         <v>55.4</v>
       </c>
       <c r="O209" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A209))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A209))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A209))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P209" s="32">
         <v>2</v>
@@ -13580,13 +13580,13 @@
         <v>2</v>
       </c>
       <c r="S209" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="B210" s="8">
         <v>2.84</v>
@@ -13628,8 +13628,8 @@
         <v>0.99</v>
       </c>
       <c r="O210" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A210))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A210))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A210))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P210" s="32">
         <v>1</v>
@@ -13641,13 +13641,13 @@
         <v>1</v>
       </c>
       <c r="S210" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="B211" s="6">
         <v>1.64</v>
@@ -13689,8 +13689,8 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O211" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A211))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A211))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A211))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P211" s="32">
         <v>1</v>
@@ -13702,13 +13702,13 @@
         <v>1</v>
       </c>
       <c r="S211" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="B212" s="8">
         <v>1.84</v>
@@ -13750,8 +13750,8 @@
         <v>0.3</v>
       </c>
       <c r="O212" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A212))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A212))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A212))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P212" s="32">
         <v>1</v>
@@ -13763,13 +13763,13 @@
         <v>1</v>
       </c>
       <c r="S212" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B213" s="6">
         <v>2.15</v>
@@ -13811,8 +13811,8 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O213" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A213))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A213))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A213))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P213" s="32">
         <v>1</v>
@@ -13824,13 +13824,13 @@
         <v>1</v>
       </c>
       <c r="S213" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="B214" s="8">
         <v>1.5</v>
@@ -13872,8 +13872,8 @@
         <v>0</v>
       </c>
       <c r="O214" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A214))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A214))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A214))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P214" s="32">
         <v>1</v>
@@ -13885,13 +13885,13 @@
         <v>1</v>
       </c>
       <c r="S214" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="B215" s="6">
         <v>1.77</v>
@@ -13933,8 +13933,8 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="O215" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A215))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A215))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A215))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P215" s="32">
         <v>1</v>
@@ -13946,13 +13946,13 @@
         <v>1</v>
       </c>
       <c r="S215" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="B216" s="8">
         <v>3.7</v>
@@ -13994,8 +13994,8 @@
         <v>2.98</v>
       </c>
       <c r="O216" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A216))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A216))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A216))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P216" s="32">
         <v>1</v>
@@ -14007,13 +14007,13 @@
         <v>6</v>
       </c>
       <c r="S216" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="B217" s="8">
         <v>6</v>
@@ -14055,8 +14055,8 @@
         <v>0.21</v>
       </c>
       <c r="O217" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A217))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A217))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A217))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P217" s="32">
         <v>1</v>
@@ -14068,13 +14068,13 @@
         <v>1</v>
       </c>
       <c r="S217" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="B218" s="8">
         <v>3.11</v>
@@ -14116,8 +14116,8 @@
         <v>0</v>
       </c>
       <c r="O218" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A218))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A218))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A218))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P218" s="32">
         <v>2</v>
@@ -14129,13 +14129,13 @@
         <v>2</v>
       </c>
       <c r="S218" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="B219" s="8">
         <v>2.57</v>
@@ -14177,8 +14177,8 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O219" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A219))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A219))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A219))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P219" s="32">
         <v>1</v>
@@ -14190,13 +14190,13 @@
         <v>1</v>
       </c>
       <c r="S219" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="B220" s="6">
         <v>2.2000000000000002</v>
@@ -14238,8 +14238,8 @@
         <v>0</v>
       </c>
       <c r="O220" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A220))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A220))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A220))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P220" s="32">
         <v>1</v>
@@ -14251,13 +14251,13 @@
         <v>3</v>
       </c>
       <c r="S220" s="1">
-        <f t="shared" ref="S220:S224" si="10">Q220+R220</f>
+        <f t="shared" ref="S220:S224" si="2">Q220+R220</f>
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="B221" s="8">
         <v>1.75</v>
@@ -14299,8 +14299,8 @@
         <v>0.5</v>
       </c>
       <c r="O221" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A221))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A221))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A221))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P221" s="32">
         <v>2</v>
@@ -14312,13 +14312,13 @@
         <v>2</v>
       </c>
       <c r="S221" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="B222" s="8">
         <v>3.31</v>
@@ -14360,8 +14360,8 @@
         <v>0</v>
       </c>
       <c r="O222" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A222))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A222))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A222))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P222" s="32">
         <v>1</v>
@@ -14373,13 +14373,13 @@
         <v>1</v>
       </c>
       <c r="S222" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="B223" s="8">
         <v>2.68</v>
@@ -14421,8 +14421,8 @@
         <v>8.92</v>
       </c>
       <c r="O223" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A223))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A223))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A223))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P223" s="32">
         <v>1</v>
@@ -14434,13 +14434,13 @@
         <v>1</v>
       </c>
       <c r="S223" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="B224" s="8">
         <v>1.57</v>
@@ -14482,8 +14482,8 @@
         <v>0.23</v>
       </c>
       <c r="O224" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*-Buggy",$A224))), "Buggy", IF(NOT(ISERR(SEARCH("*-Manual",$A224))), "Manual", IF(NOT(ISERR(SEARCH("*-Auto",$A224))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="P224" s="32">
         <v>1</v>
@@ -14495,120 +14495,120 @@
         <v>1</v>
       </c>
       <c r="S224" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:18" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A225" s="12" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G225" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="I225" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="K225" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L225" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="M225" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="N225" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="O225" s="12" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="P225" s="15" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="Q225" s="15" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="R225" s="15" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" s="11" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="B226" s="35">
         <f>SUM(B24:B224)</f>
         <v>696.34000000000026</v>
       </c>
       <c r="C226" s="35">
-        <f t="shared" ref="C226:N226" si="11">SUM(C24:C224)</f>
+        <f t="shared" ref="C226:N226" si="3">SUM(C24:C224)</f>
         <v>15910.970000000007</v>
       </c>
       <c r="D226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3027.5099999999989</v>
       </c>
       <c r="E226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1211.0199999999993</v>
       </c>
       <c r="F226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2382.9499999999994</v>
       </c>
       <c r="G226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>776.1700000000003</v>
       </c>
       <c r="H226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1987.2099999999991</v>
       </c>
       <c r="I226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5410.4700000000021</v>
       </c>
       <c r="J226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>10015.289999999999</v>
       </c>
       <c r="K226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>116.98200000000003</v>
       </c>
       <c r="L226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>12.124000000000004</v>
       </c>
       <c r="M226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>9717.3399999999983</v>
       </c>
       <c r="N226" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>889.86100000000033</v>
       </c>
       <c r="O226" s="10"/>
@@ -14616,58 +14616,58 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="B227" s="36">
         <f>AVERAGE(B24:B224)</f>
         <v>3.4643781094527375</v>
       </c>
       <c r="C227" s="36">
-        <f t="shared" ref="C227:N227" si="12">AVERAGE(C24:C224)</f>
+        <f t="shared" ref="C227:N227" si="4">AVERAGE(C24:C224)</f>
         <v>79.159054726368197</v>
       </c>
       <c r="D227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>15.062238805970143</v>
       </c>
       <c r="E227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>6.0249751243781056</v>
       </c>
       <c r="F227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>11.855472636815918</v>
       </c>
       <c r="G227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>3.8615422885572155</v>
       </c>
       <c r="H227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>9.8866169154228807</v>
       </c>
       <c r="I227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>26.917761194029861</v>
       </c>
       <c r="J227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>49.827313432835815</v>
       </c>
       <c r="K227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0.58200000000000018</v>
       </c>
       <c r="L227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>6.0318407960199022E-2</v>
       </c>
       <c r="M227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>49.077474747474739</v>
       </c>
       <c r="N227" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4.4271691542288574</v>
       </c>
       <c r="O227" s="10"/>
@@ -14675,58 +14675,58 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="B228" s="35">
         <f>MIN(B24:B224)</f>
         <v>1.5</v>
       </c>
       <c r="C228" s="35">
-        <f t="shared" ref="C228:N228" si="13">MIN(C24:C224)</f>
+        <f t="shared" ref="C228:N228" si="5">MIN(C24:C224)</f>
         <v>59.24</v>
       </c>
       <c r="D228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>1.92</v>
       </c>
       <c r="E228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>2.54</v>
       </c>
       <c r="F228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
       <c r="G228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>4.97</v>
       </c>
       <c r="I228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>5.69</v>
       </c>
       <c r="J228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>14.24</v>
       </c>
       <c r="K228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N228" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O228" s="10"/>
@@ -14734,58 +14734,58 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="B229" s="36">
         <f>MAX(B24:B224)</f>
         <v>11.26</v>
       </c>
       <c r="C229" s="36">
-        <f t="shared" ref="C229:N229" si="14">MAX(C24:C224)</f>
+        <f t="shared" ref="C229:N229" si="6">MAX(C24:C224)</f>
         <v>90.7</v>
       </c>
       <c r="D229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>66.66</v>
       </c>
       <c r="E229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>15.9</v>
       </c>
       <c r="F229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>45.65</v>
       </c>
       <c r="G229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>8.3800000000000008</v>
       </c>
       <c r="H229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>23.59</v>
       </c>
       <c r="I229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>112.31</v>
       </c>
       <c r="J229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>168.42</v>
       </c>
       <c r="K229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.92</v>
       </c>
       <c r="L229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="M229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>997.22</v>
       </c>
       <c r="N229" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>116.68</v>
       </c>
       <c r="O229" s="10"/>
@@ -14793,58 +14793,58 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="B230" s="35">
         <f>_xlfn.STDEV.S(B24:B224)</f>
         <v>1.7099870573540596</v>
       </c>
       <c r="C230" s="35">
-        <f t="shared" ref="C230:N230" si="15">_xlfn.STDEV.S(C24:C224)</f>
+        <f t="shared" ref="C230:N230" si="7">_xlfn.STDEV.S(C24:C224)</f>
         <v>6.0921847970978398</v>
       </c>
       <c r="D230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10.291472074620168</v>
       </c>
       <c r="E230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2.302393129849492</v>
       </c>
       <c r="F230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>8.3633047236422975</v>
       </c>
       <c r="G230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.4305688062629913</v>
       </c>
       <c r="H230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>3.5324986196051911</v>
       </c>
       <c r="I230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>18.36466938070723</v>
       </c>
       <c r="J230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>27.042896918530563</v>
       </c>
       <c r="K230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.0958115759563776</v>
       </c>
       <c r="L230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>7.0988366719151499E-2</v>
       </c>
       <c r="M230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>142.29104755358048</v>
       </c>
       <c r="N230" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>15.919288849419242</v>
       </c>
       <c r="O230" s="10"/>
@@ -14852,58 +14852,58 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B231" s="36">
         <f>_xlfn.VAR.S(B24:B224)</f>
         <v>2.9240557363183961</v>
       </c>
       <c r="C231" s="36">
-        <f t="shared" ref="C231:N231" si="16">_xlfn.VAR.S(C24:C224)</f>
+        <f t="shared" ref="C231:N231" si="8">_xlfn.VAR.S(C24:C224)</f>
         <v>37.114715601990042</v>
       </c>
       <c r="D231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>105.91439746268675</v>
       </c>
       <c r="E231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>5.3010141243781392</v>
       </c>
       <c r="F231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>69.944865900497575</v>
       </c>
       <c r="G231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2.04652710945272</v>
       </c>
       <c r="H231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>12.47854649751258</v>
       </c>
       <c r="I231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>337.26108146268569</v>
       </c>
       <c r="J231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>731.31827374626971</v>
       </c>
       <c r="K231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1.20080301</v>
       </c>
       <c r="L231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>5.0393482094527355E-3</v>
       </c>
       <c r="M231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20246.742213895301</v>
       </c>
       <c r="N231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>253.42375747124382</v>
       </c>
       <c r="O231" s="10"/>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" s="34" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
@@ -14929,222 +14929,222 @@
     </row>
     <row r="237" spans="1:18" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A237" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="G237" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H237" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="K237" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L237" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="M237" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="N237" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="B238" s="13">
-        <f t="shared" ref="B238:N238" si="17">AVERAGEIF($A$24:$A$224, "*Buggy", B$24:B$224)</f>
+        <f t="shared" ref="B238:N238" si="9">AVERAGEIF($A$24:$A$224, "*Buggy", B$24:B$224)</f>
         <v>3.4550746268656711</v>
       </c>
       <c r="C238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>79.211940298507443</v>
       </c>
       <c r="D238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>15.039402985074629</v>
       </c>
       <c r="E238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>6.0083582089552259</v>
       </c>
       <c r="F238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>11.828208955223879</v>
       </c>
       <c r="G238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>3.8505970149253734</v>
       </c>
       <c r="H238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>9.8588059701492536</v>
       </c>
       <c r="I238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>26.867313432835822</v>
       </c>
       <c r="J238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>49.684179104477607</v>
       </c>
       <c r="K238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0.57410447761194039</v>
       </c>
       <c r="L238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>5.9880597014925381E-2</v>
       </c>
       <c r="M238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>48.721969696969708</v>
       </c>
       <c r="N238" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>4.4076268656716415</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B239" s="13">
-        <f t="shared" ref="B239:N239" si="18">AVERAGEIF($A$24:$A$224, "*Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", B$24:B$224)</f>
         <v>3.4640298507462677</v>
       </c>
       <c r="C239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", C$24:C$224)</f>
         <v>79.16805970149251</v>
       </c>
       <c r="D239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", D$24:D$224)</f>
         <v>15.061044776119402</v>
       </c>
       <c r="E239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", E$24:E$224)</f>
         <v>6.0231343283582106</v>
       </c>
       <c r="F239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", F$24:F$224)</f>
         <v>11.841791044776121</v>
       </c>
       <c r="G239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", G$24:G$224)</f>
         <v>3.8555223880597014</v>
       </c>
       <c r="H239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", H$24:H$224)</f>
         <v>9.8791044776119392</v>
       </c>
       <c r="I239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", I$24:I$224)</f>
         <v>26.903134328358206</v>
       </c>
       <c r="J239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", J$24:J$224)</f>
         <v>49.782835820895549</v>
       </c>
       <c r="K239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", K$24:K$224)</f>
         <v>0.57973134328358211</v>
       </c>
       <c r="L239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", L$24:L$224)</f>
         <v>6.0791044776119407E-2</v>
       </c>
       <c r="M239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", M$24:M$224)</f>
         <v>48.833181818181821</v>
       </c>
       <c r="N239" s="13">
-        <f t="shared" si="18"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Manual", N$24:N$224)</f>
         <v>4.4138656716417897</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B240" s="13">
-        <f t="shared" ref="B240:N240" si="19">AVERAGEIF($A$24:$A$224, "*Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", B$24:B$224)</f>
         <v>3.4740298507462675</v>
       </c>
       <c r="C240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", C$24:C$224)</f>
         <v>79.097164179104468</v>
       </c>
       <c r="D240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", D$24:D$224)</f>
         <v>15.086268656716415</v>
       </c>
       <c r="E240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", E$24:E$224)</f>
         <v>6.0434328358208971</v>
       </c>
       <c r="F240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", F$24:F$224)</f>
         <v>11.896417910447761</v>
       </c>
       <c r="G240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", G$24:G$224)</f>
         <v>3.8785074626865672</v>
       </c>
       <c r="H240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", H$24:H$224)</f>
         <v>9.9219402985074616</v>
       </c>
       <c r="I240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", I$24:I$224)</f>
         <v>26.98283582089552</v>
       </c>
       <c r="J240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", J$24:J$224)</f>
         <v>50.014925373134339</v>
       </c>
       <c r="K240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", K$24:K$224)</f>
         <v>0.59216417910447772</v>
       </c>
       <c r="L240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", L$24:L$224)</f>
         <v>6.0283582089552236E-2</v>
       </c>
       <c r="M240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", M$24:M$224)</f>
         <v>49.677272727272737</v>
       </c>
       <c r="N240" s="13">
-        <f t="shared" si="19"/>
+        <f>AVERAGEIF($A$24:$A$224, "*Auto", N$24:N$224)</f>
         <v>4.4600149253731338</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="34" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="B243" s="23"/>
       <c r="C243" s="23"/>
@@ -15163,333 +15163,333 @@
     <row r="244" spans="1:15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="245" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B245" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I245" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K245" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L245" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M245" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N245" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O245" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>49</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="C246" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>3.4428571428571422</v>
       </c>
       <c r="D246" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>79.303469387755101</v>
       </c>
       <c r="E246" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>15.05795918367347</v>
       </c>
       <c r="F246" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>6.032040816326532</v>
       </c>
       <c r="G246" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>11.809999999999999</v>
       </c>
       <c r="H246" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>3.8167346938775513</v>
       </c>
       <c r="I246" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>9.8487755102040833</v>
       </c>
       <c r="J246" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>26.86775510204081</v>
       </c>
       <c r="K246" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>49.663673469387774</v>
       </c>
       <c r="L246" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>0.55789795918367335</v>
       </c>
       <c r="M246" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>5.7553061224489797E-2</v>
       </c>
       <c r="N246" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>55.118750000000006</v>
       </c>
       <c r="O246" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&lt;2")</f>
         <v>5.3810408163265304</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>57</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C247" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>3.3484210526315779</v>
       </c>
       <c r="D247" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>79.47859649122806</v>
       </c>
       <c r="E247" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>14.203333333333333</v>
       </c>
       <c r="F247" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>5.8885964912280704</v>
       </c>
       <c r="G247" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>11.09859649122807</v>
       </c>
       <c r="H247" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>3.8005263157894742</v>
       </c>
       <c r="I247" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>9.6892982456140366</v>
       </c>
       <c r="J247" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>25.302456140350873</v>
       </c>
       <c r="K247" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>47.989298245614052</v>
       </c>
       <c r="L247" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>0.63517543859649117</v>
       </c>
       <c r="M247" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>6.4229824561403512E-2</v>
       </c>
       <c r="N247" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>36.715178571428574</v>
       </c>
       <c r="O247" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&lt;2")</f>
         <v>4.0508947368421042</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B249" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I249" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K249" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L249" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M249" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N249" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O249" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>18</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="C250" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>3.5216666666666665</v>
       </c>
       <c r="D250" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>78.799444444444433</v>
       </c>
       <c r="E250" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>15.069444444444445</v>
       </c>
       <c r="F250" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>5.9988888888888887</v>
       </c>
       <c r="G250" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>11.928333333333333</v>
       </c>
       <c r="H250" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>3.9611111111111117</v>
       </c>
       <c r="I250" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>9.9616666666666678</v>
       </c>
       <c r="J250" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>26.99944444444445</v>
       </c>
       <c r="K250" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>50.107222222222212</v>
       </c>
       <c r="L250" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>0.63916666666666666</v>
       </c>
       <c r="M250" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>6.9605555555555559E-2</v>
       </c>
       <c r="N250" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>32.071666666666673</v>
       </c>
       <c r="O250" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Fixed", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Manual", $P$24:$P$224, "&gt;1")</f>
         <v>1.7809999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>10</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C251" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>4.1899999999999995</v>
       </c>
       <c r="D251" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>76.923000000000002</v>
       </c>
       <c r="E251" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>20.119</v>
       </c>
       <c r="F251" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>6.9260000000000002</v>
       </c>
       <c r="G251" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>16.443999999999999</v>
       </c>
       <c r="H251" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>4.3230000000000004</v>
       </c>
       <c r="I251" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>11.248000000000001</v>
       </c>
       <c r="J251" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>36.561</v>
       </c>
       <c r="K251" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>61.561</v>
       </c>
       <c r="L251" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>0.34700000000000003</v>
       </c>
       <c r="M251" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>3.7790000000000004E-2</v>
       </c>
       <c r="N251" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>122.26500000000001</v>
       </c>
       <c r="O251" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Repaired", $P$24:$P$224, "&gt;1")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Auto", $P$24:$P$224, "&gt;1")</f>
         <v>6.7919999999999998</v>
       </c>
     </row>
@@ -15525,167 +15525,167 @@
     </row>
     <row r="254" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B254" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I254" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K254" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L254" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M254" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N254" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O254" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>3</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="C255" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>3.3699999999999997</v>
       </c>
       <c r="D255" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>81.916666666666671</v>
       </c>
       <c r="E255" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>12.126666666666667</v>
       </c>
       <c r="F255" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>5.7299999999999995</v>
       </c>
       <c r="G255" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>9.1866666666666674</v>
       </c>
       <c r="H255" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>3.2666666666666662</v>
       </c>
       <c r="I255" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>8.9933333333333341</v>
       </c>
       <c r="J255" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>21.313333333333336</v>
       </c>
       <c r="K255" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>41.803333333333335</v>
       </c>
       <c r="L255" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>0.34433333333333332</v>
       </c>
       <c r="M255" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>0.10099999999999999</v>
       </c>
       <c r="N255" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>11.339999999999998</v>
       </c>
       <c r="O255" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&lt;2")</f>
         <v>0.63</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>9</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C256" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>3.0966666666666667</v>
       </c>
       <c r="D256" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>80.36666666666666</v>
       </c>
       <c r="E256" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>13.77</v>
       </c>
       <c r="F256" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>5.7866666666666671</v>
       </c>
       <c r="G256" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>9.742222222222221</v>
       </c>
       <c r="H256" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>3.8600000000000003</v>
       </c>
       <c r="I256" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>9.6466666666666665</v>
       </c>
       <c r="J256" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>23.512222222222224</v>
       </c>
       <c r="K256" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>46.662222222222219</v>
       </c>
       <c r="L256" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>1.017222222222222</v>
       </c>
       <c r="M256" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>0.13933333333333334</v>
       </c>
       <c r="N256" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>29.043333333333333</v>
       </c>
       <c r="O256" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&lt;2")</f>
         <v>1.6142222222222222</v>
       </c>
     </row>
@@ -15706,167 +15706,167 @@
     </row>
     <row r="258" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B258" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I258" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K258" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L258" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M258" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N258" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O258" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>64</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C259" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>3.468437499999999</v>
       </c>
       <c r="D259" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>79.039218749999975</v>
       </c>
       <c r="E259" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>15.198593749999999</v>
       </c>
       <c r="F259" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>6.0368750000000029</v>
       </c>
       <c r="G259" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>11.966250000000002</v>
       </c>
       <c r="H259" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>3.8831249999999997</v>
       </c>
       <c r="I259" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>9.9206249999999994</v>
       </c>
       <c r="J259" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>27.165156249999995</v>
       </c>
       <c r="K259" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>50.156875000000014</v>
       </c>
       <c r="L259" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>0.59076562499999996</v>
       </c>
       <c r="M259" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>5.890625E-2</v>
       </c>
       <c r="N259" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>50.618571428571435</v>
       </c>
       <c r="O259" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Fixed", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Manual", $S$24:$S$224, "&gt;1")</f>
         <v>4.5912343749999991</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <f>COUNTIFS($O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>COUNTIFS($O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>58</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C260" s="13">
-        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(B$24:B$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>3.5325862068965517</v>
       </c>
       <c r="D260" s="13">
-        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(C$24:C$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>78.900172413793086</v>
       </c>
       <c r="E260" s="13">
-        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(D$24:D$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>15.290517241379309</v>
       </c>
       <c r="F260" s="13">
-        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(E$24:E$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>6.0832758620689651</v>
       </c>
       <c r="G260" s="13">
-        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(F$24:F$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>12.230689655172414</v>
       </c>
       <c r="H260" s="13">
-        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(G$24:G$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>3.8813793103448275</v>
       </c>
       <c r="I260" s="13">
-        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(H$24:H$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>9.9646551724137922</v>
       </c>
       <c r="J260" s="13">
-        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(I$24:I$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>27.521379310344827</v>
       </c>
       <c r="K260" s="13">
-        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(J$24:J$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>50.53517241379312</v>
       </c>
       <c r="L260" s="13">
-        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(K$24:K$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>0.52620689655172403</v>
       </c>
       <c r="M260" s="13">
-        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(L$24:L$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>4.8017241379310335E-2</v>
       </c>
       <c r="N260" s="13">
-        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(M$24:M$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>52.935263157894745</v>
       </c>
       <c r="O260" s="13">
-        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Repaired", $S$24:$S$224, "&gt;1")</f>
+        <f>AVERAGEIFS(N$24:N$224, $O$24:$O$224, "*Auto", $S$24:$S$224, "&gt;1")</f>
         <v>4.9016034482758615</v>
       </c>
     </row>
@@ -15887,7 +15887,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="34" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="B263" s="23"/>
       <c r="C263" s="23"/>
@@ -15905,49 +15905,49 @@
     </row>
     <row r="265" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A265" s="12" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F265" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H265" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I265" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J265" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K265" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L265" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M265" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N265" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O265" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
@@ -15956,225 +15956,225 @@
         <v>6</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="C266" s="13">
-        <f t="shared" ref="C266:O266" si="20">AVERAGEIF($A$24:$A$224, "Chart-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C266:O266" si="10">AVERAGEIF($A$24:$A$224, "Chart-*-Buggy", B$24:B$224)</f>
         <v>2.6266666666666669</v>
       </c>
       <c r="D266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>80.541666666666671</v>
       </c>
       <c r="E266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>13.611666666666666</v>
       </c>
       <c r="F266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>5.1166666666666663</v>
       </c>
       <c r="G266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>9.8033333333333346</v>
       </c>
       <c r="H266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2.86</v>
       </c>
       <c r="I266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>7.9733333333333336</v>
       </c>
       <c r="J266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>23.413333333333338</v>
       </c>
       <c r="K266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>38.305</v>
       </c>
       <c r="L266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0.16333333333333333</v>
       </c>
       <c r="M266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="N266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>4.4316666666666666</v>
       </c>
       <c r="O266" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0.24499999999999997</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <f t="shared" ref="A267" si="21">COUNTIF($A$24:$A$224, "*Chart*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Chart*Manual")</f>
         <v>6</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="C267" s="13">
-        <f t="shared" ref="C267:O267" si="22">AVERAGEIF($A$24:$A$224, "Chart-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", B$24:B$224)</f>
         <v>2.6333333333333333</v>
       </c>
       <c r="D267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", C$24:C$224)</f>
         <v>80.536666666666676</v>
       </c>
       <c r="E267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", D$24:D$224)</f>
         <v>13.62</v>
       </c>
       <c r="F267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", E$24:E$224)</f>
         <v>5.1183333333333341</v>
       </c>
       <c r="G267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", F$24:F$224)</f>
         <v>9.8216666666666672</v>
       </c>
       <c r="H267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", G$24:G$224)</f>
         <v>2.8666666666666667</v>
       </c>
       <c r="I267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", H$24:H$224)</f>
         <v>7.9816666666666647</v>
       </c>
       <c r="J267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", I$24:I$224)</f>
         <v>23.443333333333339</v>
       </c>
       <c r="K267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", J$24:J$224)</f>
         <v>38.371666666666663</v>
       </c>
       <c r="L267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", K$24:K$224)</f>
         <v>0.20166666666666666</v>
       </c>
       <c r="M267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", L$24:L$224)</f>
         <v>3.7666666666666668E-2</v>
       </c>
       <c r="N267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", M$24:M$224)</f>
         <v>6.2866666666666662</v>
       </c>
       <c r="O267" s="13">
-        <f t="shared" si="22"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Manual", N$24:N$224)</f>
         <v>0.34833333333333333</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Chart*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Chart*Auto")</f>
         <v>6</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C268" s="13">
-        <f t="shared" ref="C268:O268" si="23">AVERAGEIF($A$24:$A$224, "Chart-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", B$24:B$224)</f>
         <v>2.6116666666666668</v>
       </c>
       <c r="D268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", C$24:C$224)</f>
         <v>80.563333333333333</v>
       </c>
       <c r="E268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", D$24:D$224)</f>
         <v>13.500000000000002</v>
       </c>
       <c r="F268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", E$24:E$224)</f>
         <v>5.1066666666666674</v>
       </c>
       <c r="G268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", F$24:F$224)</f>
         <v>9.6950000000000003</v>
       </c>
       <c r="H268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", G$24:G$224)</f>
         <v>2.85</v>
       </c>
       <c r="I268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", H$24:H$224)</f>
         <v>7.955000000000001</v>
       </c>
       <c r="J268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", I$24:I$224)</f>
         <v>23.195000000000004</v>
       </c>
       <c r="K268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", J$24:J$224)</f>
         <v>38.115000000000002</v>
       </c>
       <c r="L268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", K$24:K$224)</f>
         <v>0.16</v>
       </c>
       <c r="M268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", L$24:L$224)</f>
         <v>3.5333333333333335E-2</v>
       </c>
       <c r="N268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", M$24:M$224)</f>
         <v>4.4816666666666665</v>
       </c>
       <c r="O268" s="13">
-        <f t="shared" si="23"/>
+        <f>AVERAGEIF($A$24:$A$224, "Chart-*-Auto", N$24:N$224)</f>
         <v>0.24833333333333329</v>
       </c>
     </row>
     <row r="270" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B270" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F270" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I270" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J270" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K270" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L270" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M270" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N270" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O270" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
@@ -16183,225 +16183,225 @@
         <v>19</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="C271" s="13">
-        <f t="shared" ref="C271:O271" si="24">AVERAGEIF($A$24:$A$224, "Closure-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C271:O271" si="11">AVERAGEIF($A$24:$A$224, "Closure-*-Buggy", B$24:B$224)</f>
         <v>4.7199999999999989</v>
       </c>
       <c r="D271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>76.956842105263163</v>
       </c>
       <c r="E271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>16.214210526315789</v>
       </c>
       <c r="F271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>6.3884210526315792</v>
       </c>
       <c r="G271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>15.292631578947368</v>
       </c>
       <c r="H271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>3.9584210526315795</v>
       </c>
       <c r="I271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>10.347368421052632</v>
       </c>
       <c r="J271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>31.506315789473685</v>
       </c>
       <c r="K271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>54.206315789473685</v>
       </c>
       <c r="L271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>0.56515789473684208</v>
       </c>
       <c r="M271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>3.1631578947368413E-2</v>
       </c>
       <c r="N271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>67.843157894736848</v>
       </c>
       <c r="O271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>3.7689473684210526</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <f t="shared" ref="A272" si="25">COUNTIF($A$24:$A$224, "*Closure*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Closure*Manual")</f>
         <v>19</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C272" s="13">
-        <f t="shared" ref="C272:O272" si="26">AVERAGEIF($A$24:$A$224, "Closure-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", B$24:B$224)</f>
         <v>4.7068421052631564</v>
       </c>
       <c r="D272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", C$24:C$224)</f>
         <v>76.817894736842121</v>
       </c>
       <c r="E272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", D$24:D$224)</f>
         <v>16.329473684210523</v>
       </c>
       <c r="F272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", E$24:E$224)</f>
         <v>6.4352631578947355</v>
       </c>
       <c r="G272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", F$24:F$224)</f>
         <v>15.32842105263158</v>
       </c>
       <c r="H272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", G$24:G$224)</f>
         <v>3.97</v>
       </c>
       <c r="I272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", H$24:H$224)</f>
         <v>10.407368421052633</v>
       </c>
       <c r="J272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", I$24:I$224)</f>
         <v>31.657894736842106</v>
       </c>
       <c r="K272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", J$24:J$224)</f>
         <v>54.487368421052643</v>
       </c>
       <c r="L272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", K$24:K$224)</f>
         <v>0.56147368421052624</v>
       </c>
       <c r="M272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", L$24:L$224)</f>
         <v>3.1842105263157887E-2</v>
       </c>
       <c r="N272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", M$24:M$224)</f>
         <v>67.147368421052633</v>
       </c>
       <c r="O272" s="13">
-        <f t="shared" si="26"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Manual", N$24:N$224)</f>
         <v>3.7305263157894735</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Closure*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Closure*Auto")</f>
         <v>19</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C273" s="13">
-        <f t="shared" ref="C273:O273" si="27">AVERAGEIF($A$24:$A$224, "Closure-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", B$24:B$224)</f>
         <v>4.7215789473684211</v>
       </c>
       <c r="D273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", C$24:C$224)</f>
         <v>76.721052631578971</v>
       </c>
       <c r="E273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", D$24:D$224)</f>
         <v>16.372105263157891</v>
       </c>
       <c r="F273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", E$24:E$224)</f>
         <v>6.4584210526315795</v>
       </c>
       <c r="G273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", F$24:F$224)</f>
         <v>15.427894736842106</v>
       </c>
       <c r="H273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", G$24:G$224)</f>
         <v>3.9905263157894741</v>
       </c>
       <c r="I273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", H$24:H$224)</f>
         <v>10.448947368421052</v>
       </c>
       <c r="J273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", I$24:I$224)</f>
         <v>31.799999999999997</v>
       </c>
       <c r="K273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", J$24:J$224)</f>
         <v>54.722631578947372</v>
       </c>
       <c r="L273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", K$24:K$224)</f>
         <v>0.56621052631578939</v>
       </c>
       <c r="M273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", L$24:L$224)</f>
         <v>3.1947368421052627E-2</v>
       </c>
       <c r="N273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", M$24:M$224)</f>
         <v>67.857368421052641</v>
       </c>
       <c r="O273" s="13">
-        <f t="shared" si="27"/>
+        <f>AVERAGEIF($A$24:$A$224, "Closure-*-Auto", N$24:N$224)</f>
         <v>3.7694736842105256</v>
       </c>
     </row>
     <row r="275" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B275" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F275" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I275" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J275" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K275" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L275" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M275" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N275" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O275" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
@@ -16410,225 +16410,225 @@
         <v>13</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="C276" s="13">
-        <f t="shared" ref="C276:O276" si="28">AVERAGEIF($A$24:$A$224, "Lang-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C276:O276" si="12">AVERAGEIF($A$24:$A$224, "Lang-*-Buggy", B$24:B$224)</f>
         <v>3.5376923076923075</v>
       </c>
       <c r="D276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>79.416153846153833</v>
       </c>
       <c r="E276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>13.699999999999998</v>
       </c>
       <c r="F276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6.3853846153846154</v>
       </c>
       <c r="G276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>9.9153846153846157</v>
       </c>
       <c r="H276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>3.821538461538462</v>
       </c>
       <c r="I276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>10.208461538461538</v>
       </c>
       <c r="J276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>23.61615384615385</v>
       </c>
       <c r="K276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>50.37</v>
       </c>
       <c r="L276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>0.77838461538461534</v>
       </c>
       <c r="M276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6.9384615384615392E-2</v>
       </c>
       <c r="N276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>26.348333333333333</v>
       </c>
       <c r="O276" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>10.326384615384617</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <f t="shared" ref="A277" si="29">COUNTIF($A$24:$A$224, "*Lang*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Lang*Manual")</f>
         <v>13</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="C277" s="13">
-        <f t="shared" ref="C277:O277" si="30">AVERAGEIF($A$24:$A$224, "Lang-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", B$24:B$224)</f>
         <v>3.5638461538461539</v>
       </c>
       <c r="D277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", C$24:C$224)</f>
         <v>79.379230769230773</v>
       </c>
       <c r="E277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", D$24:D$224)</f>
         <v>13.75307692307692</v>
       </c>
       <c r="F277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", E$24:E$224)</f>
         <v>6.3861538461538458</v>
       </c>
       <c r="G277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", F$24:F$224)</f>
         <v>10.00076923076923</v>
       </c>
       <c r="H277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", G$24:G$224)</f>
         <v>3.8261538461538462</v>
       </c>
       <c r="I277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", H$24:H$224)</f>
         <v>10.213076923076924</v>
       </c>
       <c r="J277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", I$24:I$224)</f>
         <v>23.755384615384614</v>
       </c>
       <c r="K277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", J$24:J$224)</f>
         <v>50.429999999999993</v>
       </c>
       <c r="L277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", K$24:K$224)</f>
         <v>0.79146153846153844</v>
       </c>
       <c r="M277" s="14">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", L$24:L$224)</f>
         <v>6.9384615384615392E-2</v>
       </c>
       <c r="N277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", M$24:M$224)</f>
         <v>27.10166666666667</v>
       </c>
       <c r="O277" s="13">
-        <f t="shared" si="30"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Manual", N$24:N$224)</f>
         <v>10.364846153846155</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Lang*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Lang*Auto")</f>
         <v>13</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C278" s="13">
-        <f t="shared" ref="C278:O278" si="31">AVERAGEIF($A$24:$A$224, "Lang-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", B$24:B$224)</f>
         <v>3.569230769230769</v>
       </c>
       <c r="D278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", C$24:C$224)</f>
         <v>79.361538461538458</v>
       </c>
       <c r="E278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", D$24:D$224)</f>
         <v>13.76923076923077</v>
       </c>
       <c r="F278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", E$24:E$224)</f>
         <v>6.3976923076923082</v>
       </c>
       <c r="G278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", F$24:F$224)</f>
         <v>10.026153846153845</v>
       </c>
       <c r="H278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", G$24:G$224)</f>
         <v>3.8384615384615381</v>
       </c>
       <c r="I278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", H$24:H$224)</f>
         <v>10.23769230769231</v>
       </c>
       <c r="J278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", I$24:I$224)</f>
         <v>23.796923076923079</v>
       </c>
       <c r="K278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", J$24:J$224)</f>
         <v>50.576153846153836</v>
       </c>
       <c r="L278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", K$24:K$224)</f>
         <v>0.8237692307692307</v>
       </c>
       <c r="M278" s="14">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", L$24:L$224)</f>
         <v>6.9384615384615392E-2</v>
       </c>
       <c r="N278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", M$24:M$224)</f>
         <v>29.046666666666667</v>
       </c>
       <c r="O278" s="13">
-        <f t="shared" si="31"/>
+        <f>AVERAGEIF($A$24:$A$224, "Lang-*-Auto", N$24:N$224)</f>
         <v>10.464846153846155</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B280" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F280" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I280" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K280" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L280" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M280" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N280" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O280" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
@@ -16637,225 +16637,225 @@
         <v>24</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="C281" s="13">
-        <f t="shared" ref="C281:O281" si="32">AVERAGEIF($A$24:$A$224, "Math-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C281:O281" si="13">AVERAGEIF($A$24:$A$224, "Math-*-Buggy", B$24:B$224)</f>
         <v>2.8774999999999999</v>
       </c>
       <c r="D281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>79.826249999999987</v>
       </c>
       <c r="E281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>16.356666666666669</v>
       </c>
       <c r="F281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>6.0291666666666677</v>
       </c>
       <c r="G281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>11.797499999999999</v>
       </c>
       <c r="H281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>4.168333333333333</v>
       </c>
       <c r="I281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>10.1975</v>
       </c>
       <c r="J281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>28.153750000000002</v>
       </c>
       <c r="K281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>52.159999999999989</v>
       </c>
       <c r="L281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>0.64324999999999999</v>
       </c>
       <c r="M281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>8.8166666666666671E-2</v>
       </c>
       <c r="N281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>58.755416666666662</v>
       </c>
       <c r="O281" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>3.2640833333333332</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <f t="shared" ref="A282" si="33">COUNTIF($A$24:$A$224, "*Math*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Math*Manual")</f>
         <v>24</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="C282" s="13">
-        <f t="shared" ref="C282:O282" si="34">AVERAGEIF($A$24:$A$224, "Math-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", B$24:B$224)</f>
         <v>2.8758333333333326</v>
       </c>
       <c r="D282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", C$24:C$224)</f>
         <v>79.885833333333309</v>
       </c>
       <c r="E282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", D$24:D$224)</f>
         <v>16.25041666666667</v>
       </c>
       <c r="F282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", E$24:E$224)</f>
         <v>6.0137500000000008</v>
       </c>
       <c r="G282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", F$24:F$224)</f>
         <v>11.721666666666666</v>
       </c>
       <c r="H282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", G$24:G$224)</f>
         <v>4.1558333333333328</v>
       </c>
       <c r="I282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", H$24:H$224)</f>
         <v>10.170416666666666</v>
       </c>
       <c r="J282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", I$24:I$224)</f>
         <v>27.971250000000008</v>
       </c>
       <c r="K282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", J$24:J$224)</f>
         <v>51.982499999999987</v>
       </c>
       <c r="L282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", K$24:K$224)</f>
         <v>0.64520833333333327</v>
       </c>
       <c r="M282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", L$24:L$224)</f>
         <v>9.0124999999999997E-2</v>
       </c>
       <c r="N282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", M$24:M$224)</f>
         <v>58.771666666666654</v>
       </c>
       <c r="O282" s="13">
-        <f t="shared" si="34"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Manual", N$24:N$224)</f>
         <v>3.2652499999999995</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Math*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Math*Auto")</f>
         <v>24</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C283" s="13">
-        <f t="shared" ref="C283:O283" si="35">AVERAGEIF($A$24:$A$224, "Math-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", B$24:B$224)</f>
         <v>2.8945833333333333</v>
       </c>
       <c r="D283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", C$24:C$224)</f>
         <v>79.788333333333327</v>
       </c>
       <c r="E283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", D$24:D$224)</f>
         <v>16.332916666666669</v>
       </c>
       <c r="F283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", E$24:E$224)</f>
         <v>6.0487500000000018</v>
       </c>
       <c r="G283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", F$24:F$224)</f>
         <v>11.805416666666666</v>
       </c>
       <c r="H283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", G$24:G$224)</f>
         <v>4.190833333333333</v>
       </c>
       <c r="I283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", H$24:H$224)</f>
         <v>10.239999999999998</v>
       </c>
       <c r="J283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", I$24:I$224)</f>
         <v>28.137916666666669</v>
       </c>
       <c r="K283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", J$24:J$224)</f>
         <v>52.400416666666672</v>
       </c>
       <c r="L283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", K$24:K$224)</f>
         <v>0.66908333333333336</v>
       </c>
       <c r="M283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", L$24:L$224)</f>
         <v>8.9208333333333334E-2</v>
       </c>
       <c r="N283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", M$24:M$224)</f>
         <v>60.009583333333325</v>
       </c>
       <c r="O283" s="13">
-        <f t="shared" si="35"/>
+        <f>AVERAGEIF($A$24:$A$224, "Math-*-Auto", N$24:N$224)</f>
         <v>3.3340833333333326</v>
       </c>
     </row>
     <row r="285" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B285" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F285" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I285" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K285" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L285" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M285" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N285" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O285" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
@@ -16864,225 +16864,225 @@
         <v>2</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="C286" s="13">
-        <f t="shared" ref="C286:O286" si="36">AVERAGEIF($A$24:$A$224, "Mockito-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C286:O286" si="14">AVERAGEIF($A$24:$A$224, "Mockito-*-Buggy", B$24:B$224)</f>
         <v>1.75</v>
       </c>
       <c r="D286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>84.674999999999997</v>
       </c>
       <c r="E286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>6.9249999999999998</v>
       </c>
       <c r="F286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>3.65</v>
       </c>
       <c r="G286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="H286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="I286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>6.1</v>
       </c>
       <c r="J286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>11.65</v>
       </c>
       <c r="K286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>22.150000000000002</v>
       </c>
       <c r="L286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
       <c r="M286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>0.06</v>
       </c>
       <c r="N286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="O286" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <f t="shared" ref="A287" si="37">COUNTIF($A$24:$A$224, "*Mockito*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Mockito*Manual")</f>
         <v>2</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="C287" s="14">
-        <f t="shared" ref="C287:O287" si="38">AVERAGEIF($A$24:$A$224, "Mockito-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", B$24:B$224)</f>
         <v>1.9750000000000001</v>
       </c>
       <c r="D287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", C$24:C$224)</f>
         <v>84.125</v>
       </c>
       <c r="E287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", D$24:D$224)</f>
         <v>7.25</v>
       </c>
       <c r="F287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", E$24:E$224)</f>
         <v>3.875</v>
       </c>
       <c r="G287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", F$24:F$224)</f>
         <v>5.05</v>
       </c>
       <c r="H287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", G$24:G$224)</f>
         <v>2.5750000000000002</v>
       </c>
       <c r="I287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", H$24:H$224)</f>
         <v>6.45</v>
       </c>
       <c r="J287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", I$24:I$224)</f>
         <v>12.3</v>
       </c>
       <c r="K287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", J$24:J$224)</f>
         <v>23.945</v>
       </c>
       <c r="L287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", K$24:K$224)</f>
         <v>0.25</v>
       </c>
       <c r="M287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", L$24:L$224)</f>
         <v>0.06</v>
       </c>
       <c r="N287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", M$24:M$224)</f>
         <v>4.5</v>
       </c>
       <c r="O287" s="14">
-        <f t="shared" si="38"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Manual", N$24:N$224)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Mockito*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Mockito*Auto")</f>
         <v>2</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C288" s="14">
-        <f t="shared" ref="C288:O288" si="39">AVERAGEIF($A$24:$A$224, "Mockito-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", B$24:B$224)</f>
         <v>1.9750000000000001</v>
       </c>
       <c r="D288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", C$24:C$224)</f>
         <v>83.875</v>
       </c>
       <c r="E288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", D$24:D$224)</f>
         <v>7.125</v>
       </c>
       <c r="F288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", E$24:E$224)</f>
         <v>3.875</v>
       </c>
       <c r="G288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", F$24:F$224)</f>
         <v>5.1749999999999998</v>
       </c>
       <c r="H288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", G$24:G$224)</f>
         <v>2.7</v>
       </c>
       <c r="I288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", H$24:H$224)</f>
         <v>6.5750000000000002</v>
       </c>
       <c r="J288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", I$24:I$224)</f>
         <v>12.3</v>
       </c>
       <c r="K288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", J$24:J$224)</f>
         <v>24.435000000000002</v>
       </c>
       <c r="L288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", K$24:K$224)</f>
         <v>0.25</v>
       </c>
       <c r="M288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", L$24:L$224)</f>
         <v>0.06</v>
       </c>
       <c r="N288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", M$24:M$224)</f>
         <v>4.5</v>
       </c>
       <c r="O288" s="14">
-        <f t="shared" si="39"/>
+        <f>AVERAGEIF($A$24:$A$224, "Mockito-*-Auto", N$24:N$224)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="290" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B290" s="12" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="F290" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J290" s="12" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="K290" s="12" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L290" s="12" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="M290" s="12" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N290" s="12" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O290" s="12" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
@@ -17091,180 +17091,180 @@
         <v>3</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="C291" s="13">
-        <f t="shared" ref="C291:O291" si="40">AVERAGEIF($A$24:$A$224, "Time-*-Buggy", B$24:B$224)</f>
+        <f t="shared" ref="C291:O291" si="15">AVERAGEIF($A$24:$A$224, "Time-*-Buggy", B$24:B$224)</f>
         <v>2.5</v>
       </c>
       <c r="D291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>81.393333333333331</v>
       </c>
       <c r="E291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>11.13</v>
       </c>
       <c r="F291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>5.1566666666666672</v>
       </c>
       <c r="G291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>7.2066666666666661</v>
       </c>
       <c r="H291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="I291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>8.8166666666666664</v>
       </c>
       <c r="J291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>18.336666666666666</v>
       </c>
       <c r="K291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>39.379999999999995</v>
       </c>
       <c r="L291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="M291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>1.9E-2</v>
       </c>
       <c r="N291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>54.910000000000004</v>
       </c>
       <c r="O291" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="15"/>
         <v>3.0500000000000003</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <f t="shared" ref="A292" si="41">COUNTIF($A$24:$A$224, "*Time*Fixed")</f>
+        <f>COUNTIF($A$24:$A$224, "*Time*Manual")</f>
         <v>3</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="C292" s="14">
-        <f t="shared" ref="C292:O292" si="42">AVERAGEIF($A$24:$A$224, "Time-*-Fixed", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", B$24:B$224)</f>
         <v>2.52</v>
       </c>
       <c r="D292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", C$24:C$224)</f>
         <v>81.353333333333339</v>
       </c>
       <c r="E292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", D$24:D$224)</f>
         <v>11.269999999999998</v>
       </c>
       <c r="F292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", E$24:E$224)</f>
         <v>5.1566666666666672</v>
       </c>
       <c r="G292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", F$24:F$224)</f>
         <v>7.2666666666666657</v>
       </c>
       <c r="H292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", G$24:G$224)</f>
         <v>3.686666666666667</v>
       </c>
       <c r="I292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", H$24:H$224)</f>
         <v>8.8366666666666678</v>
       </c>
       <c r="J292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", I$24:I$224)</f>
         <v>18.540000000000003</v>
       </c>
       <c r="K292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", J$24:J$224)</f>
         <v>39.633333333333333</v>
       </c>
       <c r="L292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", K$24:K$224)</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="M292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", L$24:L$224)</f>
         <v>1.9E-2</v>
       </c>
       <c r="N292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", M$24:M$224)</f>
         <v>54.910000000000004</v>
       </c>
       <c r="O292" s="14">
-        <f t="shared" si="42"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Manual", N$24:N$224)</f>
         <v>3.0500000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <f>COUNTIF($A$24:$A$224, "*Time*Repaired")</f>
+        <f>COUNTIF($A$24:$A$224, "*Time*Auto")</f>
         <v>3</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C293" s="14">
-        <f t="shared" ref="C293:O293" si="43">AVERAGEIF($A$24:$A$224, "Time-*-Repaired", B$24:B$224)</f>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", B$24:B$224)</f>
         <v>2.52</v>
       </c>
       <c r="D293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", C$24:C$224)</f>
         <v>81.353333333333339</v>
       </c>
       <c r="E293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", D$24:D$224)</f>
         <v>11.156666666666666</v>
       </c>
       <c r="F293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", E$24:E$224)</f>
         <v>5.1566666666666672</v>
       </c>
       <c r="G293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", F$24:F$224)</f>
         <v>7.246666666666667</v>
       </c>
       <c r="H293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", G$24:G$224)</f>
         <v>3.686666666666667</v>
       </c>
       <c r="I293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", H$24:H$224)</f>
         <v>8.8366666666666678</v>
       </c>
       <c r="J293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", I$24:I$224)</f>
         <v>18.403333333333336</v>
       </c>
       <c r="K293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", J$24:J$224)</f>
         <v>39.536666666666669</v>
       </c>
       <c r="L293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", K$24:K$224)</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="M293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", L$24:L$224)</f>
         <v>1.9E-2</v>
       </c>
       <c r="N293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", M$24:M$224)</f>
         <v>54.910000000000004</v>
       </c>
       <c r="O293" s="14">
-        <f t="shared" si="43"/>
+        <f>AVERAGEIF($A$24:$A$224, "Time-*-Auto", N$24:N$224)</f>
         <v>3.0500000000000003</v>
       </c>
     </row>
